--- a/db_BACKUP.xlsx
+++ b/db_BACKUP.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460"/>
   </bookViews>
   <sheets>
     <sheet sheetId="1" name="Admin" state="visible" r:id="rId4"/>
     <sheet sheetId="2" name="Alliance" state="visible" r:id="rId5"/>
     <sheet sheetId="3" name="Calendar" state="visible" r:id="rId6"/>
-    <sheet sheetId="4" name="Relationships" state="visible" r:id="rId7"/>
+    <sheet sheetId="4" name="Notes" state="visible" r:id="rId7"/>
     <sheet sheetId="5" name="Jokes" state="visible" r:id="rId8"/>
     <sheet sheetId="6" name="Roasts" state="visible" r:id="rId9"/>
   </sheets>
@@ -19,134 +19,209 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="446">
   <si>
     <t>allies</t>
   </si>
   <si>
-    <t>Orange, Green, Blue</t>
+    <t>Purple[808], Green[NFRC], and Red[REGAL]</t>
   </si>
   <si>
     <t>plans</t>
   </si>
   <si>
-    <t>Defend against Yellow and Red. Unfortunately, we landed between two of the worst possible alliances and a crucial truce fell through between orange and green. We will do what we can, but we're on the receiving end of all of two alliances' BP, which means we're pretty fucked.</t>
+    <t>Defend against Blue. They will be sneak attacking! so heavy defenses on all choke points too.</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>!help: Displays this message.
-!allies: Displays the saved 'Allies' message.
-!plans: Displays the saved 'Plans' message.
-!bonus: Displays which sectors need bonus heroes.</t>
+    <t>*Type **!help &lt;command&gt;** to see instruction-specific help. (Ex: **!help bonus)***
+!help - Displays this message.
+!allies - Displays info on who our current allies are in war.
+!plans - Gives a broad overview of our current war strategy.
+!bonus - Lists the bonus sectors that need a feature hero. (USE THIS)
+!notes - Retrieves notes on our relationships with other alliances.
+!flipacoin - Simulates a coin flip. 
+!roll - Rolls multi-sided dice. (Ex: !roll 3d8 rolls three, 8-sided dice)</t>
   </si>
   <si>
     <t>admin</t>
   </si>
   <si>
-    <t>!help
-    Shows basic commands
-!allies
-    Retrieves the "Allies message
-!allies set &lt;message&gt;
-    Sets the "Allies" message
-!plans
-    Retrieves the "Plans" message
-!plans set &lt;message&gt;
-    Sets the "Plans" message
-!members
-    Lists the currently saved alliance member list
-!members add &lt;member&gt;
-    Adds &lt;member&gt; to the list, up to 25
-!members remove &lt;member&gt;
-    Removes &lt;member&gt; from the list
-!bonus
-    Lists which sectors need bonus heroes and which members have their bonus hero available
-!bonus list
-    Lists currently stored bonus hero placement
-!bonus add &lt;sector&gt; &lt;member&gt;
-    Adds &lt;member&gt;'s bonus hero to &lt;sector&gt;
-!bonus remove &lt;sector&gt;
-    Searches for bonus hero on &lt;sector&gt; and clears it
-!bonus remove &lt;member&gt;
-    Searches for &lt;member&gt;'s bonus hero and clears it
-!sectors
-    Lists currently stored bonus sectors
-!sectors add &lt;sector&gt;
-    Adds &lt;sector&gt; to the list, up to 25
-!sectors remove &lt;sector&gt;
-    Removes &lt;sector&gt; from the list
-!admin
-    lists this message</t>
-  </si>
-  <si>
-    <t>bonus hero</t>
-  </si>
-  <si>
-    <t>XianJiu</t>
+    <t>_
+**!allies / !plans**
+ - These are meant to be used similar to MOTD. 
+ - Use **!allies set** and **!plans set** to record a new message. 
+ - Anyone can display that message to a channel using the command.</t>
+  </si>
+  <si>
+    <t>_
+**!members**
+ - Keeps track of our alliance member list (Necessary for bonus hero tracking).
+ - **!members add &lt;name&gt;** will add a new member to the list (not case sensitive).
+ - **!members remove &lt;name&gt;** will remove a member.</t>
+  </si>
+  <si>
+    <t>_
+**!sectors**
+ - This is an admin command to keep track of which sectors we want bonus heroes on.
+ - **!sectors add &lt;sector&gt;** will add a sector to the list.
+ - Add sectors to the list as we capture new sectors that need feature heroes.
+**!sectors remove &lt;sector&gt;** removes that sector from the list.
+ - Remove sectors from the list that another alliance has captured, etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_
+**!bonus**
+ - This tracks where everyone's bonus heroes are and matches up against the sector list.
+ - This is meant to quickly determine which sectors need bonus heroes.
+ - **!bonus add &lt;sector&gt; &lt;member&gt;** designates that &lt;member&gt;'s bonus hero is currently on &lt;sector&gt;.
+ - It's designed to save us the trouble of going through each sector; but we need to keep it updated to work well.
+ - **!bonus** will cross-check the bonus sector list (defined by !sectors) and display which sectors need bonus heroes (and who has a bonus hero available). 
+ - **!bonus list** will display every alliance member and their bonus hero placement (if recorded).
+ - **!bonus remove &lt;sector or member&gt;** will search for that sector/member relationship (defined by **!bonus add**) and delete it. </t>
+  </si>
+  <si>
+    <t>_
+**!notes**
+ - This system allows us to write and save notes on other alliances like whether we work well with them or not. 
+ - **!notes** will display a list of the alliances that we have notes for.
+ - **!notes &lt;tag&gt;** will list the notes for that particular alliance (not case sensitive).
+ - **!notes &lt;tag&gt; add &lt;message&gt;** will add your message to that alliance's note list.
+ - **!notes &lt;tag&gt; remove &lt;message&gt;** will remove a note from the list for that alliance.
+ - **!notes &lt;tag&gt; create** will add a new alliance to the list that we can add notes for.</t>
   </si>
   <si>
     <t>imothe1</t>
   </si>
   <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
     <t>xmousecop</t>
   </si>
   <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
     <t>wrathavenger</t>
   </si>
   <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
     <t>teamgb</t>
   </si>
   <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
     <t>shooty pants</t>
   </si>
   <si>
+    <t>123</t>
+  </si>
+  <si>
     <t>sarcasticahole</t>
   </si>
   <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
     <t>ru1900</t>
   </si>
   <si>
+    <t>216</t>
+  </si>
+  <si>
     <t>rickys ruff riders</t>
   </si>
   <si>
-    <t>rectumwrecker</t>
+    <t>159</t>
+  </si>
+  <si>
+    <t>2inpink 3instink</t>
   </si>
   <si>
     <t>pratt11</t>
   </si>
   <si>
+    <t>165</t>
+  </si>
+  <si>
     <t>peekaboo123</t>
   </si>
   <si>
+    <t>177</t>
+  </si>
+  <si>
     <t>papa marsh</t>
   </si>
   <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>ocivv</t>
   </si>
   <si>
     <t>nae blis</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
     <t>msbatman</t>
   </si>
   <si>
+    <t>203</t>
+  </si>
+  <si>
     <t>boricua</t>
   </si>
   <si>
     <t>korvvish</t>
   </si>
   <si>
+    <t>232</t>
+  </si>
+  <si>
     <t>kashmeoutside</t>
   </si>
   <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
     <t>ikandy1</t>
   </si>
   <si>
     <t>i n0mad i</t>
   </si>
   <si>
+    <t>218</t>
+  </si>
+  <si>
     <t>dracolatias</t>
   </si>
   <si>
@@ -165,9 +240,6 @@
     <t>event</t>
   </si>
   <si>
-    <t>War 4</t>
-  </si>
-  <si>
     <t>War Reset</t>
   </si>
   <si>
@@ -196,15 +268,6 @@
   </si>
   <si>
     <t>n</t>
-  </si>
-  <si>
-    <t>kknd</t>
-  </si>
-  <si>
-    <t>test1</t>
-  </si>
-  <si>
-    <t>this is test 2</t>
   </si>
   <si>
     <t>Q: What is the difference between your wife and your job?</t>
@@ -1687,13 +1750,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2" customHeight="1"/>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1735,14 +1798,24 @@
         <v>7</v>
       </c>
     </row>
+    <row r="12" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="13" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>8</v>
+      <c r="A13" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>9</v>
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1752,135 +1825,260 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A25"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>53</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>59</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1890,34 +2088,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="B2">
         <v>9</v>
@@ -1928,30 +2123,24 @@
       <c r="D2">
         <v>9</v>
       </c>
-      <c r="E2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>22</v>
-      </c>
-      <c r="E3">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="B4">
         <v>15</v>
@@ -1962,59 +2151,47 @@
       <c r="D4">
         <v>15</v>
       </c>
-      <c r="E4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2024,30 +2201,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2060,19 +2221,19 @@
       <selection activeCell="F232" sqref="F232"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2080,12 +2241,12 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2093,12 +2254,12 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2106,12 +2267,12 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2119,12 +2280,12 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2132,12 +2293,12 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2145,12 +2306,12 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2158,12 +2319,12 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2171,12 +2332,12 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2184,12 +2345,12 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -2197,12 +2358,12 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2210,12 +2371,12 @@
         <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -2223,12 +2384,12 @@
         <v>13</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -2236,12 +2397,12 @@
         <v>14</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -2249,12 +2410,12 @@
         <v>15</v>
       </c>
       <c r="B43" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -2262,12 +2423,12 @@
         <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -2275,12 +2436,12 @@
         <v>17</v>
       </c>
       <c r="B49" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -2288,12 +2449,12 @@
         <v>18</v>
       </c>
       <c r="B52" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -2301,12 +2462,12 @@
         <v>19</v>
       </c>
       <c r="B55" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -2314,12 +2475,12 @@
         <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -2327,12 +2488,12 @@
         <v>21</v>
       </c>
       <c r="B61" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -2340,12 +2501,12 @@
         <v>22</v>
       </c>
       <c r="B64" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -2353,12 +2514,12 @@
         <v>23</v>
       </c>
       <c r="B67" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -2366,12 +2527,12 @@
         <v>24</v>
       </c>
       <c r="B70" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -2379,12 +2540,12 @@
         <v>25</v>
       </c>
       <c r="B73" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -2392,12 +2553,12 @@
         <v>26</v>
       </c>
       <c r="B76" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -2405,12 +2566,12 @@
         <v>27</v>
       </c>
       <c r="B79" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -2418,12 +2579,12 @@
         <v>28</v>
       </c>
       <c r="B82" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -2431,12 +2592,12 @@
         <v>29</v>
       </c>
       <c r="B85" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -2444,12 +2605,12 @@
         <v>30</v>
       </c>
       <c r="B88" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -2457,12 +2618,12 @@
         <v>31</v>
       </c>
       <c r="B91" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -2470,12 +2631,12 @@
         <v>32</v>
       </c>
       <c r="B94" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -2483,12 +2644,12 @@
         <v>33</v>
       </c>
       <c r="B97" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -2496,12 +2657,12 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -2509,12 +2670,12 @@
         <v>35</v>
       </c>
       <c r="B103" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -2522,12 +2683,12 @@
         <v>36</v>
       </c>
       <c r="B106" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -2535,12 +2696,12 @@
         <v>37</v>
       </c>
       <c r="B109" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -2548,12 +2709,12 @@
         <v>38</v>
       </c>
       <c r="B112" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -2561,12 +2722,12 @@
         <v>39</v>
       </c>
       <c r="B115" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -2574,12 +2735,12 @@
         <v>40</v>
       </c>
       <c r="B118" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -2587,12 +2748,12 @@
         <v>41</v>
       </c>
       <c r="B121" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -2600,12 +2761,12 @@
         <v>42</v>
       </c>
       <c r="B124" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -2613,12 +2774,12 @@
         <v>43</v>
       </c>
       <c r="B127" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -2626,12 +2787,12 @@
         <v>44</v>
       </c>
       <c r="B130" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -2639,12 +2800,12 @@
         <v>45</v>
       </c>
       <c r="B133" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -2652,12 +2813,12 @@
         <v>46</v>
       </c>
       <c r="B136" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -2665,12 +2826,12 @@
         <v>47</v>
       </c>
       <c r="B139" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -2678,12 +2839,12 @@
         <v>48</v>
       </c>
       <c r="B142" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -2691,12 +2852,12 @@
         <v>49</v>
       </c>
       <c r="B145" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -2704,12 +2865,12 @@
         <v>50</v>
       </c>
       <c r="B148" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
     </row>
     <row r="149" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -2717,12 +2878,12 @@
         <v>51</v>
       </c>
       <c r="B151" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="152" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -2730,12 +2891,12 @@
         <v>52</v>
       </c>
       <c r="B154" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -2743,12 +2904,12 @@
         <v>53</v>
       </c>
       <c r="B157" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
     </row>
     <row r="158" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -2756,12 +2917,12 @@
         <v>54</v>
       </c>
       <c r="B160" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -2769,12 +2930,12 @@
         <v>55</v>
       </c>
       <c r="B163" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
     </row>
     <row r="164" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -2782,12 +2943,12 @@
         <v>56</v>
       </c>
       <c r="B166" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
     </row>
     <row r="167" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -2795,12 +2956,12 @@
         <v>57</v>
       </c>
       <c r="B169" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
     </row>
     <row r="170" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -2808,12 +2969,12 @@
         <v>58</v>
       </c>
       <c r="B172" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
     </row>
     <row r="173" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -2821,12 +2982,12 @@
         <v>59</v>
       </c>
       <c r="B175" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
     </row>
     <row r="176" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -2834,12 +2995,12 @@
         <v>60</v>
       </c>
       <c r="B178" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
     </row>
     <row r="179" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -2847,12 +3008,12 @@
         <v>61</v>
       </c>
       <c r="B181" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
     </row>
     <row r="182" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -2860,12 +3021,12 @@
         <v>62</v>
       </c>
       <c r="B184" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
     </row>
     <row r="185" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -2873,12 +3034,12 @@
         <v>63</v>
       </c>
       <c r="B187" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
     </row>
     <row r="188" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -2886,12 +3047,12 @@
         <v>64</v>
       </c>
       <c r="B190" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
     </row>
     <row r="191" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -2899,12 +3060,12 @@
         <v>65</v>
       </c>
       <c r="B193" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
     </row>
     <row r="194" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -2912,12 +3073,12 @@
         <v>66</v>
       </c>
       <c r="B196" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
     </row>
     <row r="197" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -2925,12 +3086,12 @@
         <v>67</v>
       </c>
       <c r="B199" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
     </row>
     <row r="200" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -2938,12 +3099,12 @@
         <v>68</v>
       </c>
       <c r="B202" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
     </row>
     <row r="203" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -2951,12 +3112,12 @@
         <v>69</v>
       </c>
       <c r="B205" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
     </row>
     <row r="206" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -2964,12 +3125,12 @@
         <v>70</v>
       </c>
       <c r="B208" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -2977,12 +3138,12 @@
         <v>71</v>
       </c>
       <c r="B211" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -2990,12 +3151,12 @@
         <v>72</v>
       </c>
       <c r="B214" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
     </row>
     <row r="215" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -3003,12 +3164,12 @@
         <v>73</v>
       </c>
       <c r="B217" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
     </row>
     <row r="218" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -3016,12 +3177,12 @@
         <v>74</v>
       </c>
       <c r="B220" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
     </row>
     <row r="221" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -3029,12 +3190,12 @@
         <v>75</v>
       </c>
       <c r="B223" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
     </row>
     <row r="224" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
@@ -3042,12 +3203,12 @@
         <v>76</v>
       </c>
       <c r="B226" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
     </row>
     <row r="227" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
@@ -3055,12 +3216,12 @@
         <v>77</v>
       </c>
       <c r="B229" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
     </row>
     <row r="230" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
@@ -3068,12 +3229,12 @@
         <v>78</v>
       </c>
       <c r="B232" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
     </row>
     <row r="233" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -3081,12 +3242,12 @@
         <v>79</v>
       </c>
       <c r="B235" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
     </row>
     <row r="236" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
@@ -3094,12 +3255,12 @@
         <v>80</v>
       </c>
       <c r="B238" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
     </row>
     <row r="239" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
@@ -3107,12 +3268,12 @@
         <v>81</v>
       </c>
       <c r="B241" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
     </row>
     <row r="242" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B242" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
@@ -3120,12 +3281,12 @@
         <v>82</v>
       </c>
       <c r="B244" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
     </row>
     <row r="245" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -3133,12 +3294,12 @@
         <v>83</v>
       </c>
       <c r="B247" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
     </row>
     <row r="248" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
@@ -3146,12 +3307,12 @@
         <v>84</v>
       </c>
       <c r="B250" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
     </row>
     <row r="251" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B251" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
@@ -3159,12 +3320,12 @@
         <v>85</v>
       </c>
       <c r="B253" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
     </row>
     <row r="254" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B254" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -3172,12 +3333,12 @@
         <v>86</v>
       </c>
       <c r="B256" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
     </row>
     <row r="257" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B257" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
@@ -3185,12 +3346,12 @@
         <v>87</v>
       </c>
       <c r="B259" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
     </row>
     <row r="260" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
@@ -3198,12 +3359,12 @@
         <v>88</v>
       </c>
       <c r="B262" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
     </row>
     <row r="263" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B263" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
@@ -3211,12 +3372,12 @@
         <v>89</v>
       </c>
       <c r="B265" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
     </row>
     <row r="266" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B266" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -3224,12 +3385,12 @@
         <v>90</v>
       </c>
       <c r="B268" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
     </row>
     <row r="269" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B269" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -3237,12 +3398,12 @@
         <v>91</v>
       </c>
       <c r="B271" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
     </row>
     <row r="272" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B272" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
@@ -3250,12 +3411,12 @@
         <v>92</v>
       </c>
       <c r="B274" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
     </row>
     <row r="275" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
@@ -3263,12 +3424,12 @@
         <v>93</v>
       </c>
       <c r="B277" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
     </row>
     <row r="278" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B278" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
@@ -3276,12 +3437,12 @@
         <v>94</v>
       </c>
       <c r="B280" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
     </row>
     <row r="281" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B281" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
@@ -3289,12 +3450,12 @@
         <v>95</v>
       </c>
       <c r="B283" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
     </row>
     <row r="284" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B284" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
@@ -3302,12 +3463,12 @@
         <v>96</v>
       </c>
       <c r="B286" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
     </row>
     <row r="287" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B287" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -3315,12 +3476,12 @@
         <v>97</v>
       </c>
       <c r="B289" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
     </row>
     <row r="290" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B290" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
@@ -3328,12 +3489,12 @@
         <v>98</v>
       </c>
       <c r="B292" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
     </row>
     <row r="293" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B293" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
@@ -3341,12 +3502,12 @@
         <v>99</v>
       </c>
       <c r="B295" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
     </row>
     <row r="296" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B296" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
@@ -3354,12 +3515,12 @@
         <v>100</v>
       </c>
       <c r="B298" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
     </row>
     <row r="299" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B299" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
@@ -3367,12 +3528,12 @@
         <v>101</v>
       </c>
       <c r="B301" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
     </row>
     <row r="302" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B302" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
@@ -3380,12 +3541,12 @@
         <v>102</v>
       </c>
       <c r="B304" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
     </row>
     <row r="305" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B305" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
@@ -3393,12 +3554,12 @@
         <v>103</v>
       </c>
       <c r="B307" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
     </row>
     <row r="308" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B308" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
@@ -3406,12 +3567,12 @@
         <v>104</v>
       </c>
       <c r="B310" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
     </row>
     <row r="311" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B311" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
@@ -3419,12 +3580,12 @@
         <v>105</v>
       </c>
       <c r="B313" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
     </row>
     <row r="314" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B314" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
@@ -3432,12 +3593,12 @@
         <v>106</v>
       </c>
       <c r="B316" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
     </row>
     <row r="317" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B317" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
@@ -3445,12 +3606,12 @@
         <v>107</v>
       </c>
       <c r="B319" t="s">
-        <v>262</v>
+        <v>283</v>
       </c>
     </row>
     <row r="320" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B320" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
@@ -3458,12 +3619,12 @@
         <v>108</v>
       </c>
       <c r="B322" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
     </row>
     <row r="323" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B323" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
@@ -3471,12 +3632,12 @@
         <v>109</v>
       </c>
       <c r="B325" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
     </row>
     <row r="326" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B326" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
@@ -3484,12 +3645,12 @@
         <v>110</v>
       </c>
       <c r="B328" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
     </row>
     <row r="329" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B329" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
@@ -3497,12 +3658,12 @@
         <v>111</v>
       </c>
       <c r="B331" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
     </row>
     <row r="332" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B332" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
@@ -3510,12 +3671,12 @@
         <v>112</v>
       </c>
       <c r="B334" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
     </row>
     <row r="335" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B335" t="s">
-        <v>273</v>
+        <v>294</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
@@ -3523,12 +3684,12 @@
         <v>113</v>
       </c>
       <c r="B337" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
     </row>
     <row r="338" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B338" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
@@ -3536,12 +3697,12 @@
         <v>114</v>
       </c>
       <c r="B340" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
     </row>
     <row r="341" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B341" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
@@ -3549,12 +3710,12 @@
         <v>115</v>
       </c>
       <c r="B343" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
     </row>
     <row r="344" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B344" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
@@ -3562,12 +3723,12 @@
         <v>116</v>
       </c>
       <c r="B346" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
     </row>
     <row r="347" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B347" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
@@ -3575,12 +3736,12 @@
         <v>117</v>
       </c>
       <c r="B349" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
     </row>
     <row r="350" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B350" t="s">
-        <v>283</v>
+        <v>304</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
@@ -3588,12 +3749,12 @@
         <v>118</v>
       </c>
       <c r="B352" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
     </row>
     <row r="353" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B353" t="s">
-        <v>285</v>
+        <v>306</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
@@ -3601,12 +3762,12 @@
         <v>119</v>
       </c>
       <c r="B355" t="s">
-        <v>286</v>
+        <v>307</v>
       </c>
     </row>
     <row r="356" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B356" t="s">
-        <v>287</v>
+        <v>308</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
@@ -3614,12 +3775,12 @@
         <v>120</v>
       </c>
       <c r="B358" t="s">
-        <v>288</v>
+        <v>309</v>
       </c>
     </row>
     <row r="359" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B359" t="s">
-        <v>289</v>
+        <v>310</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
@@ -3627,12 +3788,12 @@
         <v>121</v>
       </c>
       <c r="B361" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
     </row>
     <row r="362" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B362" t="s">
-        <v>291</v>
+        <v>312</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
@@ -3640,12 +3801,12 @@
         <v>122</v>
       </c>
       <c r="B364" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
     </row>
     <row r="365" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B365" t="s">
-        <v>293</v>
+        <v>314</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
@@ -3653,12 +3814,12 @@
         <v>123</v>
       </c>
       <c r="B367" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
     </row>
     <row r="368" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B368" t="s">
-        <v>295</v>
+        <v>316</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
@@ -3666,12 +3827,12 @@
         <v>124</v>
       </c>
       <c r="B370" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
     </row>
     <row r="371" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B371" t="s">
-        <v>297</v>
+        <v>318</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
@@ -3679,12 +3840,12 @@
         <v>125</v>
       </c>
       <c r="B373" t="s">
-        <v>298</v>
+        <v>319</v>
       </c>
     </row>
     <row r="374" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B374" t="s">
-        <v>299</v>
+        <v>320</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
@@ -3692,12 +3853,12 @@
         <v>126</v>
       </c>
       <c r="B376" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
     </row>
     <row r="377" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B377" t="s">
-        <v>301</v>
+        <v>322</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
@@ -3705,12 +3866,12 @@
         <v>127</v>
       </c>
       <c r="B379" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
     </row>
     <row r="380" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B380" t="s">
-        <v>303</v>
+        <v>324</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
@@ -3718,12 +3879,12 @@
         <v>128</v>
       </c>
       <c r="B382" t="s">
-        <v>304</v>
+        <v>325</v>
       </c>
     </row>
     <row r="383" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B383" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
@@ -3731,12 +3892,12 @@
         <v>129</v>
       </c>
       <c r="B385" t="s">
-        <v>306</v>
+        <v>327</v>
       </c>
     </row>
     <row r="386" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B386" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
@@ -3744,12 +3905,12 @@
         <v>130</v>
       </c>
       <c r="B388" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
     </row>
     <row r="389" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B389" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
@@ -3757,12 +3918,12 @@
         <v>131</v>
       </c>
       <c r="B391" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
     </row>
     <row r="392" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B392" t="s">
-        <v>311</v>
+        <v>332</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
@@ -3770,12 +3931,12 @@
         <v>132</v>
       </c>
       <c r="B394" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
     </row>
     <row r="395" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B395" t="s">
-        <v>313</v>
+        <v>334</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
@@ -3783,12 +3944,12 @@
         <v>133</v>
       </c>
       <c r="B397" t="s">
-        <v>314</v>
+        <v>335</v>
       </c>
     </row>
     <row r="398" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B398" t="s">
-        <v>315</v>
+        <v>336</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
@@ -3796,12 +3957,12 @@
         <v>134</v>
       </c>
       <c r="B400" t="s">
-        <v>316</v>
+        <v>337</v>
       </c>
     </row>
     <row r="401" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B401" t="s">
-        <v>317</v>
+        <v>338</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
@@ -3809,12 +3970,12 @@
         <v>135</v>
       </c>
       <c r="B403" t="s">
-        <v>318</v>
+        <v>339</v>
       </c>
     </row>
     <row r="404" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B404" t="s">
-        <v>319</v>
+        <v>340</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
@@ -3822,12 +3983,12 @@
         <v>136</v>
       </c>
       <c r="B406" t="s">
-        <v>320</v>
+        <v>341</v>
       </c>
     </row>
     <row r="407" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B407" t="s">
-        <v>321</v>
+        <v>342</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
@@ -3835,12 +3996,12 @@
         <v>137</v>
       </c>
       <c r="B409" t="s">
-        <v>322</v>
+        <v>343</v>
       </c>
     </row>
     <row r="410" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B410" t="s">
-        <v>323</v>
+        <v>344</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
@@ -3848,12 +4009,12 @@
         <v>138</v>
       </c>
       <c r="B412" t="s">
-        <v>324</v>
+        <v>345</v>
       </c>
     </row>
     <row r="413" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B413" t="s">
-        <v>325</v>
+        <v>346</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
@@ -3861,12 +4022,12 @@
         <v>139</v>
       </c>
       <c r="B415" t="s">
-        <v>326</v>
+        <v>347</v>
       </c>
     </row>
     <row r="416" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B416" t="s">
-        <v>327</v>
+        <v>348</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
@@ -3874,12 +4035,12 @@
         <v>140</v>
       </c>
       <c r="B418" t="s">
-        <v>328</v>
+        <v>349</v>
       </c>
     </row>
     <row r="419" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B419" t="s">
-        <v>329</v>
+        <v>350</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
@@ -3887,12 +4048,12 @@
         <v>141</v>
       </c>
       <c r="B421" t="s">
-        <v>330</v>
+        <v>351</v>
       </c>
     </row>
     <row r="422" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B422" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
@@ -3900,12 +4061,12 @@
         <v>142</v>
       </c>
       <c r="B424" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
     </row>
     <row r="425" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B425" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
@@ -3913,12 +4074,12 @@
         <v>143</v>
       </c>
       <c r="B427" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
     </row>
     <row r="428" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B428" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
@@ -3926,12 +4087,12 @@
         <v>144</v>
       </c>
       <c r="B430" t="s">
-        <v>336</v>
+        <v>357</v>
       </c>
     </row>
     <row r="431" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B431" t="s">
-        <v>337</v>
+        <v>358</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
@@ -3939,12 +4100,12 @@
         <v>145</v>
       </c>
       <c r="B433" t="s">
-        <v>338</v>
+        <v>359</v>
       </c>
     </row>
     <row r="434" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B434" t="s">
-        <v>339</v>
+        <v>360</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
@@ -3952,12 +4113,12 @@
         <v>146</v>
       </c>
       <c r="B436" t="s">
-        <v>340</v>
+        <v>361</v>
       </c>
     </row>
     <row r="437" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B437" t="s">
-        <v>341</v>
+        <v>362</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
@@ -3965,12 +4126,12 @@
         <v>147</v>
       </c>
       <c r="B439" t="s">
-        <v>342</v>
+        <v>363</v>
       </c>
     </row>
     <row r="440" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B440" t="s">
-        <v>343</v>
+        <v>364</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
@@ -3978,12 +4139,12 @@
         <v>148</v>
       </c>
       <c r="B442" t="s">
-        <v>344</v>
+        <v>365</v>
       </c>
     </row>
     <row r="443" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B443" t="s">
-        <v>345</v>
+        <v>366</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
@@ -3991,12 +4152,12 @@
         <v>149</v>
       </c>
       <c r="B445" t="s">
-        <v>346</v>
+        <v>367</v>
       </c>
     </row>
     <row r="446" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B446" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
@@ -4004,12 +4165,12 @@
         <v>150</v>
       </c>
       <c r="B448" t="s">
-        <v>348</v>
+        <v>369</v>
       </c>
     </row>
     <row r="449" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B449" t="s">
-        <v>349</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -4025,381 +4186,381 @@
       <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>350</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>351</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>352</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>353</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>354</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>355</v>
+        <v>376</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>356</v>
+        <v>377</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>357</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>358</v>
+        <v>379</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>359</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>360</v>
+        <v>381</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>361</v>
+        <v>382</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>362</v>
+        <v>383</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>363</v>
+        <v>384</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>364</v>
+        <v>385</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>365</v>
+        <v>386</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>366</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>369</v>
+        <v>390</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>370</v>
+        <v>391</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>371</v>
+        <v>392</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>372</v>
+        <v>393</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>373</v>
+        <v>394</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>374</v>
+        <v>395</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>375</v>
+        <v>396</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>376</v>
+        <v>397</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>377</v>
+        <v>398</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>378</v>
+        <v>399</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>379</v>
+        <v>400</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>380</v>
+        <v>401</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>383</v>
+        <v>404</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>384</v>
+        <v>405</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>388</v>
+        <v>409</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>390</v>
+        <v>411</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>391</v>
+        <v>412</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>392</v>
+        <v>413</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>393</v>
+        <v>414</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>394</v>
+        <v>415</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>395</v>
+        <v>416</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>396</v>
+        <v>417</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>398</v>
+        <v>419</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>399</v>
+        <v>420</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>400</v>
+        <v>421</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>401</v>
+        <v>422</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>402</v>
+        <v>423</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>403</v>
+        <v>424</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>404</v>
+        <v>425</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>405</v>
+        <v>426</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>406</v>
+        <v>427</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>407</v>
+        <v>428</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>408</v>
+        <v>429</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>409</v>
+        <v>430</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>410</v>
+        <v>431</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>411</v>
+        <v>432</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>412</v>
+        <v>433</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>413</v>
+        <v>434</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>414</v>
+        <v>435</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>415</v>
+        <v>436</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>416</v>
+        <v>437</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>417</v>
+        <v>438</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>418</v>
+        <v>439</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>419</v>
+        <v>440</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>420</v>
+        <v>441</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>421</v>
+        <v>442</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>423</v>
+        <v>444</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>424</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>

--- a/db_BACKUP.xlsx
+++ b/db_BACKUP.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="449">
   <si>
     <t>allies</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>help</t>
+  </si>
+  <si>
+    <t>welcome</t>
   </si>
   <si>
     <t>*Type **!help &lt;command&gt;** to see instruction-specific help. (Ex: **!help bonus)***
@@ -44,6 +47,9 @@
 !notes - Retrieves notes on our relationships with other alliances.
 !flipacoin - Simulates a coin flip. 
 !roll - Rolls multi-sided dice. (Ex: !roll 3d8 rolls three, 8-sided dice)</t>
+  </si>
+  <si>
+    <t>Please read through the #alliance-rules channel carefully for a summary on how we operate. Once your 'member' role is set, you'll be able to see the rest of the channels. If you have any questions, reach out to an officer at any time. To get familiar with some of the things PapaBot can do, type !help.</t>
   </si>
   <si>
     <t>admin</t>
@@ -93,148 +99,151 @@
  - **!notes &lt;tag&gt; create** will add a new alliance to the list that we can add notes for.</t>
   </si>
   <si>
+    <t>2inpink 3instink</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>boricua</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>bubbarocker</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>copperpopo</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>creepingdeath</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>dirty diapers</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>dracolatias</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>i n0mad i</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>ikandy1</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>imothe1</t>
   </si>
   <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>101</t>
+    <t>178</t>
+  </si>
+  <si>
+    <t>kashmeoutside</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>korvvish</t>
+  </si>
+  <si>
+    <t>msbatman</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>nae blis</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>ocivv</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>papa marsh</t>
+  </si>
+  <si>
+    <t>peekaboo123</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>pratt11</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>rickys ruff riders</t>
+  </si>
+  <si>
+    <t>ru1900</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>sarcasticahole</t>
+  </si>
+  <si>
+    <t>shooty pants</t>
+  </si>
+  <si>
+    <t>teamgb</t>
+  </si>
+  <si>
+    <t>wrathavenger</t>
   </si>
   <si>
     <t>xmousecop</t>
-  </si>
-  <si>
-    <t>217</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>wrathavenger</t>
-  </si>
-  <si>
-    <t>178</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>teamgb</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>shooty pants</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>sarcasticahole</t>
-  </si>
-  <si>
-    <t>204</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>ru1900</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>rickys ruff riders</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>2inpink 3instink</t>
-  </si>
-  <si>
-    <t>pratt11</t>
-  </si>
-  <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t>peekaboo123</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>papa marsh</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>ocivv</t>
-  </si>
-  <si>
-    <t>nae blis</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>msbatman</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>boricua</t>
-  </si>
-  <si>
-    <t>korvvish</t>
-  </si>
-  <si>
-    <t>232</t>
-  </si>
-  <si>
-    <t>kashmeoutside</t>
-  </si>
-  <si>
-    <t>182</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>ikandy1</t>
-  </si>
-  <si>
-    <t>i n0mad i</t>
-  </si>
-  <si>
-    <t>218</t>
-  </si>
-  <si>
-    <t>dracolatias</t>
-  </si>
-  <si>
-    <t>dirty diapers</t>
-  </si>
-  <si>
-    <t>creepingdeath</t>
-  </si>
-  <si>
-    <t>copperpopo</t>
-  </si>
-  <si>
-    <t>bubbarocker</t>
   </si>
   <si>
     <t>event</t>
@@ -1431,7 +1440,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1750,72 +1759,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="8.83203125" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" ht="15.75" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>6</v>
+      <c r="A10" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1828,257 +1846,263 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
         <v>36</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2088,7 +2112,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="B1" sqref="B1"/>
@@ -2096,23 +2120,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B2">
         <v>9</v>
@@ -2120,27 +2141,21 @@
       <c r="C2">
         <v>9</v>
       </c>
-      <c r="D2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3">
-        <v>22</v>
-      </c>
-      <c r="D3">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B4">
         <v>15</v>
@@ -2148,50 +2163,38 @@
       <c r="C4">
         <v>15</v>
       </c>
-      <c r="D4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2228,12 +2231,12 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2241,12 +2244,12 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2254,12 +2257,12 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2267,12 +2270,12 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2280,12 +2283,12 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2293,12 +2296,12 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2306,12 +2309,12 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2319,12 +2322,12 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2332,12 +2335,12 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2345,12 +2348,12 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -2358,12 +2361,12 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2371,12 +2374,12 @@
         <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -2384,12 +2387,12 @@
         <v>13</v>
       </c>
       <c r="B37" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -2397,12 +2400,12 @@
         <v>14</v>
       </c>
       <c r="B40" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -2410,12 +2413,12 @@
         <v>15</v>
       </c>
       <c r="B43" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -2423,12 +2426,12 @@
         <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -2436,12 +2439,12 @@
         <v>17</v>
       </c>
       <c r="B49" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -2449,12 +2452,12 @@
         <v>18</v>
       </c>
       <c r="B52" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -2462,12 +2465,12 @@
         <v>19</v>
       </c>
       <c r="B55" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -2475,12 +2478,12 @@
         <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -2488,12 +2491,12 @@
         <v>21</v>
       </c>
       <c r="B61" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -2501,12 +2504,12 @@
         <v>22</v>
       </c>
       <c r="B64" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -2514,12 +2517,12 @@
         <v>23</v>
       </c>
       <c r="B67" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -2527,12 +2530,12 @@
         <v>24</v>
       </c>
       <c r="B70" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -2540,12 +2543,12 @@
         <v>25</v>
       </c>
       <c r="B73" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -2553,12 +2556,12 @@
         <v>26</v>
       </c>
       <c r="B76" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -2566,12 +2569,12 @@
         <v>27</v>
       </c>
       <c r="B79" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -2579,12 +2582,12 @@
         <v>28</v>
       </c>
       <c r="B82" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -2592,12 +2595,12 @@
         <v>29</v>
       </c>
       <c r="B85" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -2605,12 +2608,12 @@
         <v>30</v>
       </c>
       <c r="B88" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -2618,12 +2621,12 @@
         <v>31</v>
       </c>
       <c r="B91" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -2631,12 +2634,12 @@
         <v>32</v>
       </c>
       <c r="B94" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -2644,12 +2647,12 @@
         <v>33</v>
       </c>
       <c r="B97" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -2657,12 +2660,12 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -2670,12 +2673,12 @@
         <v>35</v>
       </c>
       <c r="B103" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -2683,12 +2686,12 @@
         <v>36</v>
       </c>
       <c r="B106" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -2696,12 +2699,12 @@
         <v>37</v>
       </c>
       <c r="B109" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -2709,12 +2712,12 @@
         <v>38</v>
       </c>
       <c r="B112" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -2722,12 +2725,12 @@
         <v>39</v>
       </c>
       <c r="B115" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -2735,12 +2738,12 @@
         <v>40</v>
       </c>
       <c r="B118" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -2748,12 +2751,12 @@
         <v>41</v>
       </c>
       <c r="B121" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -2761,12 +2764,12 @@
         <v>42</v>
       </c>
       <c r="B124" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -2774,12 +2777,12 @@
         <v>43</v>
       </c>
       <c r="B127" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -2787,12 +2790,12 @@
         <v>44</v>
       </c>
       <c r="B130" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -2800,12 +2803,12 @@
         <v>45</v>
       </c>
       <c r="B133" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -2813,12 +2816,12 @@
         <v>46</v>
       </c>
       <c r="B136" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -2826,12 +2829,12 @@
         <v>47</v>
       </c>
       <c r="B139" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -2839,12 +2842,12 @@
         <v>48</v>
       </c>
       <c r="B142" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -2852,12 +2855,12 @@
         <v>49</v>
       </c>
       <c r="B145" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -2865,12 +2868,12 @@
         <v>50</v>
       </c>
       <c r="B148" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="149" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -2878,12 +2881,12 @@
         <v>51</v>
       </c>
       <c r="B151" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="152" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -2891,12 +2894,12 @@
         <v>52</v>
       </c>
       <c r="B154" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -2904,12 +2907,12 @@
         <v>53</v>
       </c>
       <c r="B157" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="158" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -2917,12 +2920,12 @@
         <v>54</v>
       </c>
       <c r="B160" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -2930,12 +2933,12 @@
         <v>55</v>
       </c>
       <c r="B163" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="164" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -2943,12 +2946,12 @@
         <v>56</v>
       </c>
       <c r="B166" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="167" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -2956,12 +2959,12 @@
         <v>57</v>
       </c>
       <c r="B169" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="170" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -2969,12 +2972,12 @@
         <v>58</v>
       </c>
       <c r="B172" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="173" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -2982,12 +2985,12 @@
         <v>59</v>
       </c>
       <c r="B175" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="176" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -2995,12 +2998,12 @@
         <v>60</v>
       </c>
       <c r="B178" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="179" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -3008,12 +3011,12 @@
         <v>61</v>
       </c>
       <c r="B181" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="182" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -3021,12 +3024,12 @@
         <v>62</v>
       </c>
       <c r="B184" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="185" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -3034,12 +3037,12 @@
         <v>63</v>
       </c>
       <c r="B187" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="188" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -3047,12 +3050,12 @@
         <v>64</v>
       </c>
       <c r="B190" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="191" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -3060,12 +3063,12 @@
         <v>65</v>
       </c>
       <c r="B193" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="194" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -3073,12 +3076,12 @@
         <v>66</v>
       </c>
       <c r="B196" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="197" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -3086,12 +3089,12 @@
         <v>67</v>
       </c>
       <c r="B199" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="200" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -3099,12 +3102,12 @@
         <v>68</v>
       </c>
       <c r="B202" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="203" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -3112,12 +3115,12 @@
         <v>69</v>
       </c>
       <c r="B205" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="206" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -3125,12 +3128,12 @@
         <v>70</v>
       </c>
       <c r="B208" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -3138,12 +3141,12 @@
         <v>71</v>
       </c>
       <c r="B211" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -3151,12 +3154,12 @@
         <v>72</v>
       </c>
       <c r="B214" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="215" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -3164,12 +3167,12 @@
         <v>73</v>
       </c>
       <c r="B217" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="218" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -3177,12 +3180,12 @@
         <v>74</v>
       </c>
       <c r="B220" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="221" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -3190,12 +3193,12 @@
         <v>75</v>
       </c>
       <c r="B223" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="224" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
@@ -3203,12 +3206,12 @@
         <v>76</v>
       </c>
       <c r="B226" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="227" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
@@ -3216,12 +3219,12 @@
         <v>77</v>
       </c>
       <c r="B229" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="230" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
@@ -3229,12 +3232,12 @@
         <v>78</v>
       </c>
       <c r="B232" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="233" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -3242,12 +3245,12 @@
         <v>79</v>
       </c>
       <c r="B235" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="236" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
@@ -3255,12 +3258,12 @@
         <v>80</v>
       </c>
       <c r="B238" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="239" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
@@ -3268,12 +3271,12 @@
         <v>81</v>
       </c>
       <c r="B241" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="242" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B242" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
@@ -3281,12 +3284,12 @@
         <v>82</v>
       </c>
       <c r="B244" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="245" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -3294,12 +3297,12 @@
         <v>83</v>
       </c>
       <c r="B247" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="248" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
@@ -3307,12 +3310,12 @@
         <v>84</v>
       </c>
       <c r="B250" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="251" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B251" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
@@ -3320,12 +3323,12 @@
         <v>85</v>
       </c>
       <c r="B253" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="254" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B254" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -3333,12 +3336,12 @@
         <v>86</v>
       </c>
       <c r="B256" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="257" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B257" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
@@ -3346,12 +3349,12 @@
         <v>87</v>
       </c>
       <c r="B259" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="260" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
@@ -3359,12 +3362,12 @@
         <v>88</v>
       </c>
       <c r="B262" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="263" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B263" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
@@ -3372,12 +3375,12 @@
         <v>89</v>
       </c>
       <c r="B265" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="266" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B266" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -3385,12 +3388,12 @@
         <v>90</v>
       </c>
       <c r="B268" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="269" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B269" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -3398,12 +3401,12 @@
         <v>91</v>
       </c>
       <c r="B271" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="272" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B272" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
@@ -3411,12 +3414,12 @@
         <v>92</v>
       </c>
       <c r="B274" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="275" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
@@ -3424,12 +3427,12 @@
         <v>93</v>
       </c>
       <c r="B277" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="278" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B278" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
@@ -3437,12 +3440,12 @@
         <v>94</v>
       </c>
       <c r="B280" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="281" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B281" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
@@ -3450,12 +3453,12 @@
         <v>95</v>
       </c>
       <c r="B283" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="284" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B284" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
@@ -3463,12 +3466,12 @@
         <v>96</v>
       </c>
       <c r="B286" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="287" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B287" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -3476,12 +3479,12 @@
         <v>97</v>
       </c>
       <c r="B289" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="290" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B290" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
@@ -3489,12 +3492,12 @@
         <v>98</v>
       </c>
       <c r="B292" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="293" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B293" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
@@ -3502,12 +3505,12 @@
         <v>99</v>
       </c>
       <c r="B295" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="296" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B296" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
@@ -3515,12 +3518,12 @@
         <v>100</v>
       </c>
       <c r="B298" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="299" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B299" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
@@ -3528,12 +3531,12 @@
         <v>101</v>
       </c>
       <c r="B301" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="302" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B302" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
@@ -3541,12 +3544,12 @@
         <v>102</v>
       </c>
       <c r="B304" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="305" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B305" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
@@ -3554,12 +3557,12 @@
         <v>103</v>
       </c>
       <c r="B307" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="308" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B308" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
@@ -3567,12 +3570,12 @@
         <v>104</v>
       </c>
       <c r="B310" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="311" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B311" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
@@ -3580,12 +3583,12 @@
         <v>105</v>
       </c>
       <c r="B313" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="314" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B314" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
@@ -3593,12 +3596,12 @@
         <v>106</v>
       </c>
       <c r="B316" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="317" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B317" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
@@ -3606,12 +3609,12 @@
         <v>107</v>
       </c>
       <c r="B319" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="320" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B320" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
@@ -3619,12 +3622,12 @@
         <v>108</v>
       </c>
       <c r="B322" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="323" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B323" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
@@ -3632,12 +3635,12 @@
         <v>109</v>
       </c>
       <c r="B325" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="326" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B326" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
@@ -3645,12 +3648,12 @@
         <v>110</v>
       </c>
       <c r="B328" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="329" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B329" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
@@ -3658,12 +3661,12 @@
         <v>111</v>
       </c>
       <c r="B331" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="332" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B332" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
@@ -3671,12 +3674,12 @@
         <v>112</v>
       </c>
       <c r="B334" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="335" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B335" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
@@ -3684,12 +3687,12 @@
         <v>113</v>
       </c>
       <c r="B337" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="338" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B338" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
@@ -3697,12 +3700,12 @@
         <v>114</v>
       </c>
       <c r="B340" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="341" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B341" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
@@ -3710,12 +3713,12 @@
         <v>115</v>
       </c>
       <c r="B343" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="344" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B344" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
@@ -3723,12 +3726,12 @@
         <v>116</v>
       </c>
       <c r="B346" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="347" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B347" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
@@ -3736,12 +3739,12 @@
         <v>117</v>
       </c>
       <c r="B349" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="350" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B350" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
@@ -3749,12 +3752,12 @@
         <v>118</v>
       </c>
       <c r="B352" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="353" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B353" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
@@ -3762,12 +3765,12 @@
         <v>119</v>
       </c>
       <c r="B355" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="356" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B356" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
@@ -3775,12 +3778,12 @@
         <v>120</v>
       </c>
       <c r="B358" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="359" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B359" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
@@ -3788,12 +3791,12 @@
         <v>121</v>
       </c>
       <c r="B361" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="362" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B362" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
@@ -3801,12 +3804,12 @@
         <v>122</v>
       </c>
       <c r="B364" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="365" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B365" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
@@ -3814,12 +3817,12 @@
         <v>123</v>
       </c>
       <c r="B367" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="368" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B368" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
@@ -3827,12 +3830,12 @@
         <v>124</v>
       </c>
       <c r="B370" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="371" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B371" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
@@ -3840,12 +3843,12 @@
         <v>125</v>
       </c>
       <c r="B373" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="374" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B374" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
@@ -3853,12 +3856,12 @@
         <v>126</v>
       </c>
       <c r="B376" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="377" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B377" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
@@ -3866,12 +3869,12 @@
         <v>127</v>
       </c>
       <c r="B379" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="380" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B380" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
@@ -3879,12 +3882,12 @@
         <v>128</v>
       </c>
       <c r="B382" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="383" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B383" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
@@ -3892,12 +3895,12 @@
         <v>129</v>
       </c>
       <c r="B385" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="386" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B386" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
@@ -3905,12 +3908,12 @@
         <v>130</v>
       </c>
       <c r="B388" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="389" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B389" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
@@ -3918,12 +3921,12 @@
         <v>131</v>
       </c>
       <c r="B391" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="392" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B392" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
@@ -3931,12 +3934,12 @@
         <v>132</v>
       </c>
       <c r="B394" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="395" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B395" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
@@ -3944,12 +3947,12 @@
         <v>133</v>
       </c>
       <c r="B397" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="398" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B398" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
@@ -3957,12 +3960,12 @@
         <v>134</v>
       </c>
       <c r="B400" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="401" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B401" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
@@ -3970,12 +3973,12 @@
         <v>135</v>
       </c>
       <c r="B403" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="404" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B404" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
@@ -3983,12 +3986,12 @@
         <v>136</v>
       </c>
       <c r="B406" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="407" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B407" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
@@ -3996,12 +3999,12 @@
         <v>137</v>
       </c>
       <c r="B409" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="410" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B410" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
@@ -4009,12 +4012,12 @@
         <v>138</v>
       </c>
       <c r="B412" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="413" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B413" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
@@ -4022,12 +4025,12 @@
         <v>139</v>
       </c>
       <c r="B415" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="416" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B416" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
@@ -4035,12 +4038,12 @@
         <v>140</v>
       </c>
       <c r="B418" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="419" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B419" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
@@ -4048,12 +4051,12 @@
         <v>141</v>
       </c>
       <c r="B421" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="422" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B422" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
@@ -4061,12 +4064,12 @@
         <v>142</v>
       </c>
       <c r="B424" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="425" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B425" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
@@ -4074,12 +4077,12 @@
         <v>143</v>
       </c>
       <c r="B427" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="428" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B428" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
@@ -4087,12 +4090,12 @@
         <v>144</v>
       </c>
       <c r="B430" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="431" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B431" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
@@ -4100,12 +4103,12 @@
         <v>145</v>
       </c>
       <c r="B433" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="434" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B434" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
@@ -4113,12 +4116,12 @@
         <v>146</v>
       </c>
       <c r="B436" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="437" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B437" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
@@ -4126,12 +4129,12 @@
         <v>147</v>
       </c>
       <c r="B439" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="440" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B440" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
@@ -4139,12 +4142,12 @@
         <v>148</v>
       </c>
       <c r="B442" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="443" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B443" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
@@ -4152,12 +4155,12 @@
         <v>149</v>
       </c>
       <c r="B445" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="446" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B446" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
@@ -4165,12 +4168,12 @@
         <v>150</v>
       </c>
       <c r="B448" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="449" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B449" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -4190,377 +4193,377 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>

--- a/db_BACKUP.xlsx
+++ b/db_BACKUP.xlsx
@@ -4,22 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet sheetId="1" name="Admin" state="visible" r:id="rId4"/>
     <sheet sheetId="2" name="Alliance" state="visible" r:id="rId5"/>
     <sheet sheetId="3" name="Calendar" state="visible" r:id="rId6"/>
     <sheet sheetId="4" name="Notes" state="visible" r:id="rId7"/>
-    <sheet sheetId="5" name="Jokes" state="visible" r:id="rId8"/>
-    <sheet sheetId="6" name="Roasts" state="visible" r:id="rId9"/>
+    <sheet sheetId="5" name="Fun" state="visible" r:id="rId8"/>
+    <sheet sheetId="6" name="Discord" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="512">
   <si>
     <t>allies</t>
   </si>
@@ -46,7 +46,8 @@
 !bonus - Lists the bonus sectors that need a feature hero. (USE THIS)
 !notes - Retrieves notes on our relationships with other alliances.
 !flipacoin - Simulates a coin flip. 
-!roll - Rolls multi-sided dice. (Ex: !roll 3d8 rolls three, 8-sided dice)</t>
+!roll - Rolls multi-sided dice. (Ex: !roll 3d8 rolls three, 8-sided dice)
+!8ball - Asks the magic Papa8Ball to tell the future.</t>
   </si>
   <si>
     <t>Please read through the #alliance-rules channel carefully for a summary on how we operate. Once your 'member' role is set, you'll be able to see the rest of the channels. If you have any questions, reach out to an officer at any time. To get familiar with some of the things PapaBot can do, type !help.</t>
@@ -102,6 +103,9 @@
     <t>2inpink 3instink</t>
   </si>
   <si>
+    <t>63</t>
+  </si>
+  <si>
     <t>161</t>
   </si>
   <si>
@@ -159,7 +163,7 @@
     <t>i n0mad i</t>
   </si>
   <si>
-    <t>218</t>
+    <t/>
   </si>
   <si>
     <t>ikandy1</t>
@@ -180,7 +184,7 @@
     <t>kashmeoutside</t>
   </si>
   <si>
-    <t>182</t>
+    <t>66</t>
   </si>
   <si>
     <t>korvvish</t>
@@ -189,9 +193,6 @@
     <t>msbatman</t>
   </si>
   <si>
-    <t>203</t>
-  </si>
-  <si>
     <t>nae blis</t>
   </si>
   <si>
@@ -210,9 +211,6 @@
     <t>peekaboo123</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>121</t>
   </si>
   <si>
@@ -228,18 +226,24 @@
     <t>ru1900</t>
   </si>
   <si>
-    <t>216</t>
-  </si>
-  <si>
     <t>sarcasticahole</t>
   </si>
   <si>
+    <t>65</t>
+  </si>
+  <si>
     <t>shooty pants</t>
   </si>
   <si>
+    <t>44</t>
+  </si>
+  <si>
     <t>teamgb</t>
   </si>
   <si>
+    <t>42</t>
+  </si>
+  <si>
     <t>wrathavenger</t>
   </si>
   <si>
@@ -249,12 +253,6 @@
     <t>event</t>
   </si>
   <si>
-    <t>War Reset</t>
-  </si>
-  <si>
-    <t>War 4: Final Reset</t>
-  </si>
-  <si>
     <t>month</t>
   </si>
   <si>
@@ -267,168 +265,447 @@
     <t>!5min</t>
   </si>
   <si>
-    <t>y</t>
-  </si>
-  <si>
     <t>!1hour</t>
   </si>
   <si>
     <t>!1day</t>
   </si>
   <si>
-    <t>n</t>
-  </si>
-  <si>
     <t>Q: What is the difference between your wife and your job?</t>
   </si>
   <si>
+    <t>if laughter is the best medicine, your face must be curing the world.</t>
+  </si>
+  <si>
+    <t>As I see it, yes.</t>
+  </si>
+  <si>
     <t>A: After five years your job still sucks.</t>
   </si>
   <si>
+    <t>you're so ugly, you scared the crap out of the toilet.</t>
+  </si>
+  <si>
+    <t>Ask again later.</t>
+  </si>
+  <si>
+    <t>your family tree must be a cactus because everybody on it is a prick.</t>
+  </si>
+  <si>
+    <t>Better not tell you now.</t>
+  </si>
+  <si>
     <t>Q: What do you call a man who cries while he pleasures himself?</t>
   </si>
   <si>
+    <t>no I'm not insulting you, I'm describing you.</t>
+  </si>
+  <si>
+    <t>Cannot predict now.</t>
+  </si>
+  <si>
     <t>A: A tearjerker.</t>
   </si>
   <si>
+    <t>it's better to let someone think you are an Idiot than to open your mouth and prove it.</t>
+  </si>
+  <si>
+    <t>Concentrate and ask again.</t>
+  </si>
+  <si>
+    <t>if I had a face like yours, I'd sue my parents.</t>
+  </si>
+  <si>
+    <t>Don’t count on it.</t>
+  </si>
+  <si>
     <t>Q: Why are hurricanes normally named after women?</t>
   </si>
   <si>
+    <t>your birth certificate is an apology letter from the condom factory.</t>
+  </si>
+  <si>
+    <t>It is certain.</t>
+  </si>
+  <si>
     <t>A: When they come they're wild and wet, but when they go they take your house and car with them.</t>
   </si>
   <si>
+    <t>I guess you prove that even god makes mistakes sometimes.</t>
+  </si>
+  <si>
+    <t>It is decidedly so.</t>
+  </si>
+  <si>
+    <t>the only way you'll ever get laid is if you crawl up a chicken's ass and wait.</t>
+  </si>
+  <si>
+    <t>Most likely.</t>
+  </si>
+  <si>
     <t>Q: Why are Penises the lightest things in the world?</t>
   </si>
   <si>
+    <t>you're so fake, Barbie is jealous.</t>
+  </si>
+  <si>
+    <t>My reply is no.</t>
+  </si>
+  <si>
     <t>A: Even thoughts can raise them.</t>
   </si>
   <si>
+    <t>I’m jealous of people that don’t know you!</t>
+  </si>
+  <si>
+    <t>My sources say no.</t>
+  </si>
+  <si>
+    <t>my psychiatrist told me I was crazy and I said I want a second opinion. He said okay, you're ugly too.</t>
+  </si>
+  <si>
+    <t>Outlook not so good.</t>
+  </si>
+  <si>
     <t>Q: What's the difference between a hooker and a drug dealer?</t>
   </si>
   <si>
+    <t>you're so ugly, when your mom dropped you off at school she got a fine for littering.</t>
+  </si>
+  <si>
+    <t>Outlook good.</t>
+  </si>
+  <si>
     <t>A: A hooker can wash her crack and sell it again.</t>
   </si>
   <si>
+    <t>if I wanted to kill myself I'd climb your ego and jump to your IQ.</t>
+  </si>
+  <si>
+    <t>Reply hazy, try again.</t>
+  </si>
+  <si>
+    <t>you must have been born on a highway because that's where most accidents happen.</t>
+  </si>
+  <si>
+    <t>Signs point to yes.</t>
+  </si>
+  <si>
     <t>Q: What's worse than waking up at a party and finding a penis drawn on your face?</t>
   </si>
   <si>
+    <t>brains aren't everything. In your case they're nothing.</t>
+  </si>
+  <si>
+    <t>Very doubtful.</t>
+  </si>
+  <si>
     <t>A: Finding out it was traced.</t>
   </si>
   <si>
+    <t>I don't know what makes you so stupid, but it really works.</t>
+  </si>
+  <si>
+    <t>Without a doubt.</t>
+  </si>
+  <si>
+    <t>I can explain it to you, but I can’t understand it for you.</t>
+  </si>
+  <si>
+    <t>Yes.</t>
+  </si>
+  <si>
     <t>Q: Why didn't the Toilet Paper cross the road?</t>
   </si>
   <si>
+    <t>roses are red violets are blue, God made me pretty, what happened to you?</t>
+  </si>
+  <si>
+    <t>Yes – definitely.</t>
+  </si>
+  <si>
     <t>A: It got stuck in a crack</t>
   </si>
   <si>
+    <t>behind every fat woman there is a beautiful woman. No seriously, your in the way.</t>
+  </si>
+  <si>
+    <t>You may rely on it.</t>
+  </si>
+  <si>
+    <t>calling you an idiot would be an insult to all the stupid people.</t>
+  </si>
+  <si>
     <t>Q: What do you call an anorexic woman with a yeast infection?</t>
   </si>
   <si>
+    <t>you, sir, are an oxygen thief!</t>
+  </si>
+  <si>
     <t>A: A Quarter Pounder with Cheese</t>
   </si>
   <si>
+    <t>some babies were dropped on their heads but you were clearly thrown at a wall.</t>
+  </si>
+  <si>
+    <t>don't like my sarcasm, well I don't like your stupid.</t>
+  </si>
+  <si>
     <t>Q: How did the Burger King get the Dairy Queen pregnant?</t>
   </si>
   <si>
+    <t>why don't you go play in traffic.</t>
+  </si>
+  <si>
     <t>A: He forgot to wrap his Whopper!</t>
   </si>
   <si>
+    <t>please shut your mouth when you’re talking to me.</t>
+  </si>
+  <si>
+    <t>I'd slap you, but that would be animal abuse.</t>
+  </si>
+  <si>
     <t>Q: What's the last thing Tickle Me Elmo receives before leaving the factory?</t>
   </si>
   <si>
+    <t>they say opposites attract. I hope you meet someone who is good-looking, intelligent, and cultured.</t>
+  </si>
+  <si>
     <t>A: Two Test-tickles</t>
   </si>
   <si>
+    <t>stop trying to be a smart ass, you're just an ass.</t>
+  </si>
+  <si>
+    <t>the last time I saw something like you, I flushed it.</t>
+  </si>
+  <si>
     <t>Q: Do you know what 6.9 is?</t>
   </si>
   <si>
+    <t>I'm busy now. Can I ignore you some other time?</t>
+  </si>
+  <si>
     <t>A: A good thing screwed up by a period.</t>
   </si>
   <si>
+    <t>you have Diarrhea of the mouth; constipation of the ideas.</t>
+  </si>
+  <si>
+    <t>if ugly were a crime, you'd get a life sentence.</t>
+  </si>
+  <si>
     <t>Q: What do a Rubik's cube and a penis have in common?</t>
   </si>
   <si>
+    <t>your mind is on vacation but your mouth is working overtime.</t>
+  </si>
+  <si>
     <t>A: The more you play with them, the harder they get!</t>
   </si>
   <si>
+    <t>I can lose weight, but you’ll always be ugly.</t>
+  </si>
+  <si>
+    <t>why don't you slip into something more comfortable... like a coma.</t>
+  </si>
+  <si>
     <t>Q: How do you make a pool table laugh?</t>
   </si>
   <si>
+    <t>shock me, say something intelligent.</t>
+  </si>
+  <si>
     <t>A: Tickle its balls.</t>
   </si>
   <si>
+    <t>if your gonna be two faced, honey at least make one of them pretty.</t>
+  </si>
+  <si>
+    <t>keep rolling your eyes, perhaps you'll find a brain back there.</t>
+  </si>
+  <si>
     <t>Q: What does a perverted frog say?</t>
   </si>
   <si>
+    <t>you are not as bad as people say, you are much, much worse.</t>
+  </si>
+  <si>
     <t>A: Rubbit</t>
   </si>
   <si>
+    <t>I don't know what your problem is, but I'll bet it's hard to pronounce.</t>
+  </si>
+  <si>
+    <t>you get ten times more girls than me? ten times zero is zero...</t>
+  </si>
+  <si>
     <t>Q: What do you call an IT teacher who touches up his students?</t>
   </si>
   <si>
+    <t>there is no vaccine against stupidity.</t>
+  </si>
+  <si>
     <t>A: a PDF File</t>
   </si>
   <si>
+    <t>you're the reason the gene pool needs a lifeguard.</t>
+  </si>
+  <si>
+    <t>sure, I've seen people like you before - but I had to pay an admission.</t>
+  </si>
+  <si>
     <t>Q: What is the difference between a Genealogist and a Gynecologist?</t>
   </si>
   <si>
+    <t>how old are you? - Wait I shouldn't ask, you can't count that high.</t>
+  </si>
+  <si>
     <t>A: A Genealogist looks up your family tree, whereas a Gynecologist looks up your family bush.</t>
   </si>
   <si>
+    <t>have you been shopping lately? They're selling lives, you should go get one.</t>
+  </si>
+  <si>
+    <t>you're like Monday mornings, nobody likes you.</t>
+  </si>
+  <si>
     <t>Q: What's green and smells like pork?</t>
   </si>
   <si>
+    <t>of course I talk like an idiot, how else would you understand me?</t>
+  </si>
+  <si>
     <t>A: Kermit the frog's finger</t>
   </si>
   <si>
+    <t>all day I thought of you... I was at the zoo.</t>
+  </si>
+  <si>
+    <t>to make you laugh on Saturday, I need to you joke on Wednesday.</t>
+  </si>
+  <si>
     <t>Q: What do a nearsighted gynecologist and a puppy have in common?</t>
   </si>
   <si>
+    <t>you're so fat, you could sell shade.</t>
+  </si>
+  <si>
     <t>A: A wet nose.</t>
   </si>
   <si>
+    <t>I'd like to see things from your point of view but I can't seem to get my head that far up my ass.</t>
+  </si>
+  <si>
+    <t>don't you need a license to be that ugly?</t>
+  </si>
+  <si>
     <t>Q: What do you call an Italian hooker?</t>
   </si>
   <si>
+    <t>my friend thinks he is smart. He told me an onion is the only food that makes you cry, so I threw a coconut at his face.</t>
+  </si>
+  <si>
     <t>A: A Pasta-tute</t>
   </si>
   <si>
+    <t>your house is so dirty you have to wipe your feet before you go outside.</t>
+  </si>
+  <si>
+    <t>if you really spoke your mind, you'd be speechless.</t>
+  </si>
+  <si>
     <t>Q: Who was the worlds first carpenter?</t>
   </si>
   <si>
+    <t>stupidity is not a crime so you are free to go.</t>
+  </si>
+  <si>
     <t>A: Eve, because she made Adam's banana stand</t>
   </si>
   <si>
+    <t>you are so old, when you were a kid rainbows were black and white.</t>
+  </si>
+  <si>
+    <t>if I told you that I have a piece of dirt in my eye, would you move?</t>
+  </si>
+  <si>
     <t>Q: Whats the difference between a hooker and a mosquito?</t>
   </si>
   <si>
+    <t>you so dumb, you think Cheerios are doughnut seeds.</t>
+  </si>
+  <si>
     <t>A: When you slap a mosquito, it stops sucking.</t>
   </si>
   <si>
+    <t>so, a thought crossed your mind? Must have been a long and lonely journey.</t>
+  </si>
+  <si>
+    <t>you are so old, your birth-certificate expired.</t>
+  </si>
+  <si>
     <t>Q: What's the process of applying for a job at Hooters?</t>
   </si>
   <si>
+    <t>every time I'm next to you, I get a fierce desire to be alone.</t>
+  </si>
+  <si>
     <t>A: They just give you a bra and say "Here, fill this out."</t>
   </si>
   <si>
+    <t>you're so dumb that you got hit by a parked car.</t>
+  </si>
+  <si>
+    <t>keep talking, someday you'll say something intelligent!</t>
+  </si>
+  <si>
     <t>Q: How do you get a nun pregnant?</t>
   </si>
   <si>
+    <t>you're so fat, you leave footprints in concrete.</t>
+  </si>
+  <si>
     <t>A: Dress her up as an alter boy.</t>
   </si>
   <si>
+    <t>how did you get here? Did someone leave your cage open?</t>
+  </si>
+  <si>
+    <t>pardon me, but you've obviously mistaken me for someone who gives a damn.</t>
+  </si>
+  <si>
     <t>Q: What do electric trains and women's breasts have in common?</t>
   </si>
   <si>
+    <t>wipe your mouth, there's still a tiny bit of bullshit around your lips.</t>
+  </si>
+  <si>
     <t>A: They were originally intended for children, but it's the men who play with them the most.</t>
   </si>
   <si>
+    <t>don't you have a terribly empty feeling - in your skull?</t>
+  </si>
+  <si>
+    <t>as an outsider, what do you think of the human race?</t>
+  </si>
+  <si>
     <t>Q: Whats long, hard and full of seamen?</t>
   </si>
   <si>
+    <t>just because you have one doesn't mean you have to act like one.</t>
+  </si>
+  <si>
     <t>A: A submarine</t>
   </si>
   <si>
+    <t>we can always tell when you are lying. Your lips move.</t>
+  </si>
+  <si>
+    <t>are you always this stupid or is today a special occasion?</t>
+  </si>
+  <si>
     <t>Q: Whats the best thing about dating homeless chicks?</t>
   </si>
   <si>
@@ -1179,238 +1456,158 @@
     <t xml:space="preserve">A: Chicken Poodle soup Girls are like math problems. If they are under 18, it's best you do them in your head. </t>
   </si>
   <si>
-    <t>if laughter is the best medicine, your face must be curing the world.</t>
-  </si>
-  <si>
-    <t>you're so ugly, you scared the crap out of the toilet.</t>
-  </si>
-  <si>
-    <t>your family tree must be a cactus because everybody on it is a prick.</t>
-  </si>
-  <si>
-    <t>no I'm not insulting you, I'm describing you.</t>
-  </si>
-  <si>
-    <t>it's better to let someone think you are an Idiot than to open your mouth and prove it.</t>
-  </si>
-  <si>
-    <t>if I had a face like yours, I'd sue my parents.</t>
-  </si>
-  <si>
-    <t>your birth certificate is an apology letter from the condom factory.</t>
-  </si>
-  <si>
-    <t>I guess you prove that even god makes mistakes sometimes.</t>
-  </si>
-  <si>
-    <t>the only way you'll ever get laid is if you crawl up a chicken's ass and wait.</t>
-  </si>
-  <si>
-    <t>you're so fake, Barbie is jealous.</t>
-  </si>
-  <si>
-    <t>I’m jealous of people that don’t know you!</t>
-  </si>
-  <si>
-    <t>my psychiatrist told me I was crazy and I said I want a second opinion. He said okay, you're ugly too.</t>
-  </si>
-  <si>
-    <t>you're so ugly, when your mom dropped you off at school she got a fine for littering.</t>
-  </si>
-  <si>
-    <t>if I wanted to kill myself I'd climb your ego and jump to your IQ.</t>
-  </si>
-  <si>
-    <t>you must have been born on a highway because that's where most accidents happen.</t>
-  </si>
-  <si>
-    <t>brains aren't everything. In your case they're nothing.</t>
-  </si>
-  <si>
-    <t>I don't know what makes you so stupid, but it really works.</t>
-  </si>
-  <si>
-    <t>I can explain it to you, but I can’t understand it for you.</t>
-  </si>
-  <si>
-    <t>roses are red violets are blue, God made me pretty, what happened to you?</t>
-  </si>
-  <si>
-    <t>behind every fat woman there is a beautiful woman. No seriously, your in the way.</t>
-  </si>
-  <si>
-    <t>calling you an idiot would be an insult to all the stupid people.</t>
-  </si>
-  <si>
-    <t>you, sir, are an oxygen thief!</t>
-  </si>
-  <si>
-    <t>some babies were dropped on their heads but you were clearly thrown at a wall.</t>
-  </si>
-  <si>
-    <t>don't like my sarcasm, well I don't like your stupid.</t>
-  </si>
-  <si>
-    <t>why don't you go play in traffic.</t>
-  </si>
-  <si>
-    <t>please shut your mouth when you’re talking to me.</t>
-  </si>
-  <si>
-    <t>I'd slap you, but that would be animal abuse.</t>
-  </si>
-  <si>
-    <t>they say opposites attract. I hope you meet someone who is good-looking, intelligent, and cultured.</t>
-  </si>
-  <si>
-    <t>stop trying to be a smart ass, you're just an ass.</t>
-  </si>
-  <si>
-    <t>the last time I saw something like you, I flushed it.</t>
-  </si>
-  <si>
-    <t>I'm busy now. Can I ignore you some other time?</t>
-  </si>
-  <si>
-    <t>you have Diarrhea of the mouth; constipation of the ideas.</t>
-  </si>
-  <si>
-    <t>if ugly were a crime, you'd get a life sentence.</t>
-  </si>
-  <si>
-    <t>your mind is on vacation but your mouth is working overtime.</t>
-  </si>
-  <si>
-    <t>I can lose weight, but you’ll always be ugly.</t>
-  </si>
-  <si>
-    <t>why don't you slip into something more comfortable... like a coma.</t>
-  </si>
-  <si>
-    <t>shock me, say something intelligent.</t>
-  </si>
-  <si>
-    <t>if your gonna be two faced, honey at least make one of them pretty.</t>
-  </si>
-  <si>
-    <t>keep rolling your eyes, perhaps you'll find a brain back there.</t>
-  </si>
-  <si>
-    <t>you are not as bad as people say, you are much, much worse.</t>
-  </si>
-  <si>
-    <t>I don't know what your problem is, but I'll bet it's hard to pronounce.</t>
-  </si>
-  <si>
-    <t>you get ten times more girls than me? ten times zero is zero...</t>
-  </si>
-  <si>
-    <t>there is no vaccine against stupidity.</t>
-  </si>
-  <si>
-    <t>you're the reason the gene pool needs a lifeguard.</t>
-  </si>
-  <si>
-    <t>sure, I've seen people like you before - but I had to pay an admission.</t>
-  </si>
-  <si>
-    <t>how old are you? - Wait I shouldn't ask, you can't count that high.</t>
-  </si>
-  <si>
-    <t>have you been shopping lately? They're selling lives, you should go get one.</t>
-  </si>
-  <si>
-    <t>you're like Monday mornings, nobody likes you.</t>
-  </si>
-  <si>
-    <t>of course I talk like an idiot, how else would you understand me?</t>
-  </si>
-  <si>
-    <t>all day I thought of you... I was at the zoo.</t>
-  </si>
-  <si>
-    <t>to make you laugh on Saturday, I need to you joke on Wednesday.</t>
-  </si>
-  <si>
-    <t>you're so fat, you could sell shade.</t>
-  </si>
-  <si>
-    <t>I'd like to see things from your point of view but I can't seem to get my head that far up my ass.</t>
-  </si>
-  <si>
-    <t>don't you need a license to be that ugly?</t>
-  </si>
-  <si>
-    <t>my friend thinks he is smart. He told me an onion is the only food that makes you cry, so I threw a coconut at his face.</t>
-  </si>
-  <si>
-    <t>your house is so dirty you have to wipe your feet before you go outside.</t>
-  </si>
-  <si>
-    <t>if you really spoke your mind, you'd be speechless.</t>
-  </si>
-  <si>
-    <t>stupidity is not a crime so you are free to go.</t>
-  </si>
-  <si>
-    <t>you are so old, when you were a kid rainbows were black and white.</t>
-  </si>
-  <si>
-    <t>if I told you that I have a piece of dirt in my eye, would you move?</t>
-  </si>
-  <si>
-    <t>you so dumb, you think Cheerios are doughnut seeds.</t>
-  </si>
-  <si>
-    <t>so, a thought crossed your mind? Must have been a long and lonely journey.</t>
-  </si>
-  <si>
-    <t>you are so old, your birth-certificate expired.</t>
-  </si>
-  <si>
-    <t>every time I'm next to you, I get a fierce desire to be alone.</t>
-  </si>
-  <si>
-    <t>you're so dumb that you got hit by a parked car.</t>
-  </si>
-  <si>
-    <t>keep talking, someday you'll say something intelligent!</t>
-  </si>
-  <si>
-    <t>you're so fat, you leave footprints in concrete.</t>
-  </si>
-  <si>
-    <t>how did you get here? Did someone leave your cage open?</t>
-  </si>
-  <si>
-    <t>pardon me, but you've obviously mistaken me for someone who gives a damn.</t>
-  </si>
-  <si>
-    <t>wipe your mouth, there's still a tiny bit of bullshit around your lips.</t>
-  </si>
-  <si>
-    <t>don't you have a terribly empty feeling - in your skull?</t>
-  </si>
-  <si>
-    <t>as an outsider, what do you think of the human race?</t>
-  </si>
-  <si>
-    <t>just because you have one doesn't mean you have to act like one.</t>
-  </si>
-  <si>
-    <t>we can always tell when you are lying. Your lips move.</t>
-  </si>
-  <si>
-    <t>are you always this stupid or is today a special occasion?</t>
+    <t>427515063507877888</t>
+  </si>
+  <si>
+    <t>mjm1976m</t>
+  </si>
+  <si>
+    <t>117048304646225924</t>
+  </si>
+  <si>
+    <t>Boricua</t>
+  </si>
+  <si>
+    <t>361739579977629697</t>
+  </si>
+  <si>
+    <t>568608386791243799</t>
+  </si>
+  <si>
+    <t>Copperpopo</t>
+  </si>
+  <si>
+    <t>621375239909015552</t>
+  </si>
+  <si>
+    <t>621364830418239516</t>
+  </si>
+  <si>
+    <t>pilfer009</t>
+  </si>
+  <si>
+    <t>623316383975079967</t>
+  </si>
+  <si>
+    <t>Draco</t>
+  </si>
+  <si>
+    <t>484126152571617280</t>
+  </si>
+  <si>
+    <t>N0MADIC</t>
+  </si>
+  <si>
+    <t>472627903104811019</t>
+  </si>
+  <si>
+    <t>IKANDY</t>
+  </si>
+  <si>
+    <t>623622883201253411</t>
+  </si>
+  <si>
+    <t>imo the first</t>
+  </si>
+  <si>
+    <t>463908810373857324</t>
+  </si>
+  <si>
+    <t>kash314</t>
+  </si>
+  <si>
+    <t>395979105700413451</t>
+  </si>
+  <si>
+    <t>Korvvish</t>
+  </si>
+  <si>
+    <t>478053793532084250</t>
+  </si>
+  <si>
+    <t>409471590988906508</t>
+  </si>
+  <si>
+    <t>Nae’blis</t>
+  </si>
+  <si>
+    <t>453762219042406401</t>
+  </si>
+  <si>
+    <t>467426493912317953</t>
+  </si>
+  <si>
+    <t>PapaMarsh</t>
+  </si>
+  <si>
+    <t>214042704357621760</t>
+  </si>
+  <si>
+    <t>dancingpotato</t>
+  </si>
+  <si>
+    <t>370999241688219690</t>
+  </si>
+  <si>
+    <t>Pratt</t>
+  </si>
+  <si>
+    <t>477018053133991937</t>
+  </si>
+  <si>
+    <t>Ricky</t>
+  </si>
+  <si>
+    <t>621404757042659328</t>
+  </si>
+  <si>
+    <t>Ru</t>
+  </si>
+  <si>
+    <t>535659584027754497</t>
+  </si>
+  <si>
+    <t>SarcasticAhole</t>
+  </si>
+  <si>
+    <t>305697563175157760</t>
+  </si>
+  <si>
+    <t>shooty-pants</t>
+  </si>
+  <si>
+    <t>428221019409350666</t>
+  </si>
+  <si>
+    <t>TeamGB</t>
+  </si>
+  <si>
+    <t>246021971601522688</t>
+  </si>
+  <si>
+    <t>SilviuPOWER</t>
+  </si>
+  <si>
+    <t>420761034941530113</t>
+  </si>
+  <si>
+    <t>mousecop</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
       <family val="2"/>
       <scheme val="minor"/>
       <sz val="11"/>
@@ -1437,14 +1634,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1762,7 +1961,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2" customHeight="1"/>
@@ -1846,7 +2045,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2"/>
@@ -1855,140 +2054,143 @@
       <c r="A1" t="s">
         <v>14</v>
       </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1996,7 +2198,7 @@
         <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
         <v>46</v>
@@ -2010,7 +2212,7 @@
         <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -2018,10 +2220,10 @@
         <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2029,80 +2231,98 @@
         <v>50</v>
       </c>
       <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
         <v>51</v>
-      </c>
-      <c r="C17" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
         <v>53</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>56</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>58</v>
       </c>
-      <c r="B21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
         <v>59</v>
       </c>
-      <c r="B22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>60</v>
       </c>
       <c r="B23" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2112,7 +2332,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="B1" sqref="B1"/>
@@ -2120,81 +2340,39 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" t="s">
         <v>64</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>66</v>
       </c>
-      <c r="B2">
-        <v>9</v>
-      </c>
-      <c r="C2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>67</v>
       </c>
-      <c r="B3">
-        <v>22</v>
-      </c>
-      <c r="C3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>68</v>
       </c>
-      <c r="B4">
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>69</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>70</v>
-      </c>
-      <c r="C5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2218,1962 +2396,1850 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B449"/>
+  <dimension ref="A1:C449"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="F232" sqref="F232"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="8.83203125" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C2" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="3" ht="15" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C3" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="4" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B4" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="C4" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="5" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="B5" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>6</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C5" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="6" ht="15" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>7</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C6" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="7" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>8</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="B7" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+      <c r="C7" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>9</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="8" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+      <c r="B8" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>10</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="C8" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="9" ht="15" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>11</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="C9" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="10" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>12</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="B10" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+      <c r="C10" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>13</v>
-      </c>
-      <c r="B37" t="s">
+    <row r="11" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+      <c r="B11" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>14</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="C11" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+    <row r="12" ht="15" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>15</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="C12" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+    <row r="13" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>16</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="B13" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+      <c r="C13" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>17</v>
-      </c>
-      <c r="B49" t="s">
+    <row r="14" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+      <c r="B14" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>18</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="C14" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+    <row r="15" ht="15" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>19</v>
-      </c>
-      <c r="B55" t="s">
+      <c r="C15" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
+    <row r="16" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>20</v>
-      </c>
-      <c r="B58" t="s">
+      <c r="B16" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
+      <c r="C16" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>21</v>
-      </c>
-      <c r="B61" t="s">
+    <row r="17" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
+      <c r="B17" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>22</v>
-      </c>
-      <c r="B64" t="s">
+      <c r="C17" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
+    <row r="18" ht="15" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>23</v>
-      </c>
-      <c r="B67" t="s">
+      <c r="C18" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
+    <row r="19" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>24</v>
-      </c>
-      <c r="B70" t="s">
+      <c r="B19" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
+      <c r="C19" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>25</v>
-      </c>
-      <c r="B73" t="s">
+    <row r="20" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
+      <c r="B20" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>26</v>
-      </c>
-      <c r="B76" t="s">
+      <c r="C20" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
+    <row r="21" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>27</v>
-      </c>
-      <c r="B79" t="s">
+    <row r="22" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
+      <c r="B22" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>28</v>
-      </c>
-      <c r="B82" t="s">
+    <row r="23" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
+      <c r="B23" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>29</v>
-      </c>
-      <c r="B85" t="s">
+    <row r="24" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
+    <row r="25" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>30</v>
-      </c>
-      <c r="B88" t="s">
+      <c r="B25" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
+    <row r="26" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>31</v>
-      </c>
-      <c r="B91" t="s">
+      <c r="B26" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
+    <row r="27" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>32</v>
-      </c>
-      <c r="B94" t="s">
+    <row r="28" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
+      <c r="B28" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>33</v>
-      </c>
-      <c r="B97" t="s">
+    <row r="29" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
+      <c r="B29" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>34</v>
-      </c>
-      <c r="B100" t="s">
+    <row r="30" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
+    <row r="31" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>35</v>
-      </c>
-      <c r="B103" t="s">
+      <c r="B31" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" t="s">
+    <row r="32" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>36</v>
-      </c>
-      <c r="B106" t="s">
+      <c r="B32" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
+    <row r="33" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>37</v>
-      </c>
-      <c r="B109" t="s">
+    <row r="34" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
+      <c r="B34" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>38</v>
-      </c>
-      <c r="B112" t="s">
+    <row r="35" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B113" t="s">
+      <c r="B35" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>39</v>
-      </c>
-      <c r="B115" t="s">
+    <row r="36" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B116" t="s">
+    <row r="37" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>40</v>
-      </c>
-      <c r="B118" t="s">
+      <c r="B37" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B119" t="s">
+    <row r="38" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>41</v>
-      </c>
-      <c r="B121" t="s">
+      <c r="B38" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B122" t="s">
+    <row r="39" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>42</v>
-      </c>
-      <c r="B124" t="s">
+    <row r="40" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B125" t="s">
+      <c r="B40" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>43</v>
-      </c>
-      <c r="B127" t="s">
+    <row r="41" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B128" t="s">
+      <c r="B41" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>44</v>
-      </c>
-      <c r="B130" t="s">
+    <row r="42" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B131" t="s">
+    <row r="43" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>45</v>
-      </c>
-      <c r="B133" t="s">
+      <c r="B43" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B134" t="s">
+    <row r="44" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>46</v>
-      </c>
-      <c r="B136" t="s">
+      <c r="B44" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B137" t="s">
+    <row r="45" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>47</v>
-      </c>
-      <c r="B139" t="s">
+    <row r="46" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B140" t="s">
+      <c r="B46" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>48</v>
-      </c>
-      <c r="B142" t="s">
+    <row r="47" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B143" t="s">
+      <c r="B47" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <v>49</v>
-      </c>
-      <c r="B145" t="s">
+    <row r="48" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B146" t="s">
+    <row r="49" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <v>50</v>
-      </c>
-      <c r="B148" t="s">
+      <c r="B49" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B149" t="s">
+    <row r="50" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <v>51</v>
-      </c>
-      <c r="B151" t="s">
+      <c r="B50" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B152" t="s">
+    <row r="51" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>52</v>
-      </c>
-      <c r="B154" t="s">
+    <row r="52" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B155" t="s">
+      <c r="B52" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>53</v>
-      </c>
-      <c r="B157" t="s">
+    <row r="53" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B158" t="s">
+      <c r="B53" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>54</v>
-      </c>
-      <c r="B160" t="s">
+    <row r="54" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B161" t="s">
+    <row r="55" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>55</v>
-      </c>
-      <c r="B163" t="s">
+      <c r="B55" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B164" t="s">
+    <row r="56" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>56</v>
-      </c>
-      <c r="B166" t="s">
+      <c r="B56" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B167" t="s">
+    <row r="57" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <v>57</v>
-      </c>
-      <c r="B169" t="s">
+    <row r="58" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B170" t="s">
+      <c r="B58" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172">
-        <v>58</v>
-      </c>
-      <c r="B172" t="s">
+    <row r="59" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B173" t="s">
+      <c r="B59" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175">
-        <v>59</v>
-      </c>
-      <c r="B175" t="s">
+    <row r="60" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B176" t="s">
+    <row r="61" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <v>60</v>
-      </c>
-      <c r="B178" t="s">
+      <c r="B61" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B179" t="s">
+    <row r="62" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181">
-        <v>61</v>
-      </c>
-      <c r="B181" t="s">
+      <c r="B62" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B182" t="s">
+    <row r="63" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184">
-        <v>62</v>
-      </c>
-      <c r="B184" t="s">
+    <row r="64" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B185" t="s">
+      <c r="B64" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187">
-        <v>63</v>
-      </c>
-      <c r="B187" t="s">
+    <row r="65" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B188" t="s">
+      <c r="B65" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190">
-        <v>64</v>
-      </c>
-      <c r="B190" t="s">
+    <row r="66" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B191" t="s">
+    <row r="67" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193">
-        <v>65</v>
-      </c>
-      <c r="B193" t="s">
+      <c r="B67" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B194" t="s">
+    <row r="68" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196">
-        <v>66</v>
-      </c>
-      <c r="B196" t="s">
+      <c r="B68" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B197" t="s">
+    <row r="69" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199">
-        <v>67</v>
-      </c>
-      <c r="B199" t="s">
+    <row r="70" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B200" t="s">
+      <c r="B70" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202">
-        <v>68</v>
-      </c>
-      <c r="B202" t="s">
+    <row r="71" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B203" t="s">
+      <c r="B71" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205">
-        <v>69</v>
-      </c>
-      <c r="B205" t="s">
+    <row r="72" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B206" t="s">
+    <row r="73" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208">
-        <v>70</v>
-      </c>
-      <c r="B208" t="s">
+      <c r="B73" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B209" t="s">
+    <row r="74" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211">
-        <v>71</v>
-      </c>
-      <c r="B211" t="s">
+      <c r="B74" s="2" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B212" t="s">
+    <row r="75" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214">
-        <v>72</v>
-      </c>
-      <c r="B214" t="s">
+    <row r="76" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B215" t="s">
+    <row r="77" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217">
-        <v>73</v>
-      </c>
-      <c r="B217" t="s">
+    <row r="79" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B218" t="s">
+    <row r="80" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220">
-        <v>74</v>
-      </c>
-      <c r="B220" t="s">
+    <row r="82" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B221" t="s">
+    <row r="83" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223">
-        <v>75</v>
-      </c>
-      <c r="B223" t="s">
+    <row r="85" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B224" t="s">
+    <row r="86" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226">
-        <v>76</v>
-      </c>
-      <c r="B226" t="s">
+    <row r="88" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B227" t="s">
+    <row r="89" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229">
-        <v>77</v>
-      </c>
-      <c r="B229" t="s">
+    <row r="91" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B230" t="s">
+    <row r="92" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232">
-        <v>78</v>
-      </c>
-      <c r="B232" t="s">
+    <row r="94" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B233" t="s">
+    <row r="95" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235">
-        <v>79</v>
-      </c>
-      <c r="B235" t="s">
+    <row r="97" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B236" t="s">
+    <row r="98" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238">
-        <v>80</v>
-      </c>
-      <c r="B238" t="s">
+    <row r="100" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B239" t="s">
+    <row r="101" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241">
-        <v>81</v>
-      </c>
-      <c r="B241" t="s">
+    <row r="103" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B242" t="s">
+    <row r="104" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244">
-        <v>82</v>
-      </c>
-      <c r="B244" t="s">
+    <row r="106" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B245" t="s">
+    <row r="107" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247">
-        <v>83</v>
-      </c>
-      <c r="B247" t="s">
+    <row r="109" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B248" t="s">
+    <row r="110" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250">
-        <v>84</v>
-      </c>
-      <c r="B250" t="s">
+    <row r="112" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B251" t="s">
+    <row r="113" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253">
-        <v>85</v>
-      </c>
-      <c r="B253" t="s">
+    <row r="115" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B254" t="s">
+    <row r="116" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256">
-        <v>86</v>
-      </c>
-      <c r="B256" t="s">
+    <row r="118" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B257" t="s">
+    <row r="119" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259">
-        <v>87</v>
-      </c>
-      <c r="B259" t="s">
+    <row r="121" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B260" t="s">
+    <row r="122" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262">
-        <v>88</v>
-      </c>
-      <c r="B262" t="s">
+    <row r="124" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B263" t="s">
+    <row r="125" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265">
-        <v>89</v>
-      </c>
-      <c r="B265" t="s">
+    <row r="127" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B266" t="s">
+    <row r="128" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268">
-        <v>90</v>
-      </c>
-      <c r="B268" t="s">
+    <row r="130" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B269" t="s">
+    <row r="131" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271">
-        <v>91</v>
-      </c>
-      <c r="B271" t="s">
+    <row r="133" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B272" t="s">
+    <row r="134" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274">
-        <v>92</v>
-      </c>
-      <c r="B274" t="s">
+    <row r="136" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B275" t="s">
+    <row r="137" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277">
-        <v>93</v>
-      </c>
-      <c r="B277" t="s">
+    <row r="139" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B278" t="s">
+    <row r="140" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280">
-        <v>94</v>
-      </c>
-      <c r="B280" t="s">
+    <row r="142" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B281" t="s">
+    <row r="143" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283">
-        <v>95</v>
-      </c>
-      <c r="B283" t="s">
+    <row r="145" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="284" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B284" t="s">
+    <row r="146" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286">
-        <v>96</v>
-      </c>
-      <c r="B286" t="s">
+    <row r="148" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="287" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B287" t="s">
+    <row r="149" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289">
-        <v>97</v>
-      </c>
-      <c r="B289" t="s">
+    <row r="151" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="290" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B290" t="s">
+    <row r="152" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292">
-        <v>98</v>
-      </c>
-      <c r="B292" t="s">
+    <row r="154" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="293" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B293" t="s">
+    <row r="155" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295">
-        <v>99</v>
-      </c>
-      <c r="B295" t="s">
+    <row r="157" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="296" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B296" t="s">
+    <row r="158" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A298">
-        <v>100</v>
-      </c>
-      <c r="B298" t="s">
+    <row r="160" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="299" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B299" t="s">
+    <row r="161" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301">
-        <v>101</v>
-      </c>
-      <c r="B301" t="s">
+    <row r="163" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="302" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B302" t="s">
+    <row r="164" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A304">
-        <v>102</v>
-      </c>
-      <c r="B304" t="s">
+    <row r="166" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="305" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B305" t="s">
+    <row r="167" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307">
-        <v>103</v>
-      </c>
-      <c r="B307" t="s">
+    <row r="169" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="308" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B308" t="s">
+    <row r="170" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A310">
-        <v>104</v>
-      </c>
-      <c r="B310" t="s">
+    <row r="172" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="311" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B311" t="s">
+    <row r="173" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A313">
-        <v>105</v>
-      </c>
-      <c r="B313" t="s">
+    <row r="175" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="314" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B314" t="s">
+    <row r="176" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A316">
-        <v>106</v>
-      </c>
-      <c r="B316" t="s">
+    <row r="178" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="317" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B317" t="s">
+    <row r="179" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A319">
-        <v>107</v>
-      </c>
-      <c r="B319" t="s">
+    <row r="181" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="320" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B320" t="s">
+    <row r="182" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A322">
-        <v>108</v>
-      </c>
-      <c r="B322" t="s">
+    <row r="184" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="323" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B323" t="s">
+    <row r="185" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A325">
-        <v>109</v>
-      </c>
-      <c r="B325" t="s">
+    <row r="187" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="326" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B326" t="s">
+    <row r="188" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A328">
-        <v>110</v>
-      </c>
-      <c r="B328" t="s">
+    <row r="190" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="329" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B329" t="s">
+    <row r="191" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A331">
-        <v>111</v>
-      </c>
-      <c r="B331" t="s">
+    <row r="193" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="332" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B332" t="s">
+    <row r="194" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A334">
-        <v>112</v>
-      </c>
-      <c r="B334" t="s">
+    <row r="196" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="335" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B335" t="s">
+    <row r="197" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A337">
-        <v>113</v>
-      </c>
-      <c r="B337" t="s">
+    <row r="199" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="338" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B338" t="s">
+    <row r="200" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A340">
-        <v>114</v>
-      </c>
-      <c r="B340" t="s">
+    <row r="202" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="341" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B341" t="s">
+    <row r="203" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A343">
-        <v>115</v>
-      </c>
-      <c r="B343" t="s">
+    <row r="205" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="344" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B344" t="s">
+    <row r="206" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A346">
-        <v>116</v>
-      </c>
-      <c r="B346" t="s">
+    <row r="208" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="347" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B347" t="s">
+    <row r="209" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A349">
-        <v>117</v>
-      </c>
-      <c r="B349" t="s">
+    <row r="211" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="350" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B350" t="s">
+    <row r="212" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A352">
-        <v>118</v>
-      </c>
-      <c r="B352" t="s">
+    <row r="214" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="353" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B353" t="s">
+    <row r="215" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A355">
-        <v>119</v>
-      </c>
-      <c r="B355" t="s">
+    <row r="217" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="356" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B356" t="s">
+    <row r="218" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A358">
-        <v>120</v>
-      </c>
-      <c r="B358" t="s">
+    <row r="220" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="359" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B359" t="s">
+    <row r="221" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A361">
-        <v>121</v>
-      </c>
-      <c r="B361" t="s">
+    <row r="223" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="362" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B362" t="s">
+    <row r="224" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A364">
-        <v>122</v>
-      </c>
-      <c r="B364" t="s">
+    <row r="226" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="365" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B365" t="s">
+    <row r="227" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A367">
-        <v>123</v>
-      </c>
-      <c r="B367" t="s">
+    <row r="229" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="368" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B368" t="s">
+    <row r="230" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A370">
-        <v>124</v>
-      </c>
-      <c r="B370" t="s">
+    <row r="232" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="371" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B371" t="s">
+    <row r="233" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A373">
-        <v>125</v>
-      </c>
-      <c r="B373" t="s">
+    <row r="235" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="374" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B374" t="s">
+    <row r="236" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A376">
-        <v>126</v>
-      </c>
-      <c r="B376" t="s">
+    <row r="238" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="377" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B377" t="s">
+    <row r="239" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A379">
-        <v>127</v>
-      </c>
-      <c r="B379" t="s">
+    <row r="241" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="380" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B380" t="s">
+    <row r="242" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A382">
-        <v>128</v>
-      </c>
-      <c r="B382" t="s">
+    <row r="244" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="383" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B383" t="s">
+    <row r="245" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A385">
-        <v>129</v>
-      </c>
-      <c r="B385" t="s">
+    <row r="247" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="386" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B386" t="s">
+    <row r="248" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A388">
-        <v>130</v>
-      </c>
-      <c r="B388" t="s">
+    <row r="250" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="389" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B389" t="s">
+    <row r="251" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A391">
-        <v>131</v>
-      </c>
-      <c r="B391" t="s">
+    <row r="253" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="392" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B392" t="s">
+    <row r="254" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A394">
-        <v>132</v>
-      </c>
-      <c r="B394" t="s">
+    <row r="256" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="395" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B395" t="s">
+    <row r="257" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A397">
-        <v>133</v>
-      </c>
-      <c r="B397" t="s">
+    <row r="259" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="398" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B398" t="s">
+    <row r="260" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A400">
-        <v>134</v>
-      </c>
-      <c r="B400" t="s">
+    <row r="262" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="401" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B401" t="s">
+    <row r="263" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A403">
-        <v>135</v>
-      </c>
-      <c r="B403" t="s">
+    <row r="265" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="404" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B404" t="s">
+    <row r="266" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A406">
-        <v>136</v>
-      </c>
-      <c r="B406" t="s">
+    <row r="268" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="407" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B407" t="s">
+    <row r="269" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A409">
-        <v>137</v>
-      </c>
-      <c r="B409" t="s">
+    <row r="271" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="410" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B410" t="s">
+    <row r="272" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A412">
-        <v>138</v>
-      </c>
-      <c r="B412" t="s">
+    <row r="274" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="413" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B413" t="s">
+    <row r="275" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A415">
-        <v>139</v>
-      </c>
-      <c r="B415" t="s">
+    <row r="277" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="416" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B416" t="s">
+    <row r="278" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A418">
-        <v>140</v>
-      </c>
-      <c r="B418" t="s">
+    <row r="280" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="419" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B419" t="s">
+    <row r="281" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A421">
-        <v>141</v>
-      </c>
-      <c r="B421" t="s">
+    <row r="283" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="422" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B422" t="s">
+    <row r="284" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A424">
-        <v>142</v>
-      </c>
-      <c r="B424" t="s">
+    <row r="286" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="425" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B425" t="s">
+    <row r="287" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A427">
-        <v>143</v>
-      </c>
-      <c r="B427" t="s">
+    <row r="289" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="428" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B428" t="s">
+    <row r="290" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A430">
-        <v>144</v>
-      </c>
-      <c r="B430" t="s">
+    <row r="292" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="431" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B431" t="s">
+    <row r="293" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A433">
-        <v>145</v>
-      </c>
-      <c r="B433" t="s">
+    <row r="295" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="434" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B434" t="s">
+    <row r="296" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A436">
-        <v>146</v>
-      </c>
-      <c r="B436" t="s">
+    <row r="298" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="437" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B437" t="s">
+    <row r="299" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A439">
-        <v>147</v>
-      </c>
-      <c r="B439" t="s">
+    <row r="301" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="440" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B440" t="s">
+    <row r="302" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A442">
-        <v>148</v>
-      </c>
-      <c r="B442" t="s">
+    <row r="304" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="443" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B443" t="s">
+    <row r="305" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A445">
-        <v>149</v>
-      </c>
-      <c r="B445" t="s">
+    <row r="307" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="446" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B446" t="s">
+    <row r="308" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A448">
-        <v>150</v>
-      </c>
-      <c r="B448" t="s">
+    <row r="310" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="449" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B449" t="s">
+    <row r="311" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
         <v>373</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449" s="1" t="s">
+        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -4183,387 +4249,212 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A75"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="G46" sqref="G46"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>448</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>511</v>
       </c>
     </row>
   </sheetData>

--- a/db_BACKUP.xlsx
+++ b/db_BACKUP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460"/>
   </bookViews>
   <sheets>
     <sheet sheetId="1" name="Admin" state="visible" r:id="rId4"/>
@@ -19,18 +19,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="492">
   <si>
     <t>allies</t>
   </si>
   <si>
-    <t>Purple[808], Green[NFRC], and Red[REGAL]</t>
+    <t/>
   </si>
   <si>
     <t>plans</t>
-  </si>
-  <si>
-    <t>Defend against Blue. They will be sneak attacking! so heavy defenses on all choke points too.</t>
   </si>
   <si>
     <t>help</t>
@@ -103,90 +100,36 @@
     <t>2inpink 3instink</t>
   </si>
   <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
     <t>boricua</t>
   </si>
   <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>217</t>
-  </si>
-  <si>
     <t>bubbarocker</t>
   </si>
   <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
     <t>copperpopo</t>
   </si>
   <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
     <t>creepingdeath</t>
   </si>
   <si>
-    <t>198</t>
-  </si>
-  <si>
     <t>dirty diapers</t>
   </si>
   <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>232</t>
-  </si>
-  <si>
     <t>dracolatias</t>
   </si>
   <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t>204</t>
-  </si>
-  <si>
     <t>i n0mad i</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>ikandy1</t>
   </si>
   <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
     <t>imothe1</t>
   </si>
   <si>
-    <t>178</t>
-  </si>
-  <si>
     <t>kashmeoutside</t>
   </si>
   <si>
-    <t>66</t>
-  </si>
-  <si>
     <t>korvvish</t>
   </si>
   <si>
@@ -196,30 +139,18 @@
     <t>nae blis</t>
   </si>
   <si>
-    <t>140</t>
-  </si>
-  <si>
     <t>ocivv</t>
   </si>
   <si>
-    <t>117</t>
-  </si>
-  <si>
     <t>papa marsh</t>
   </si>
   <si>
     <t>peekaboo123</t>
   </si>
   <si>
-    <t>121</t>
-  </si>
-  <si>
     <t>pratt11</t>
   </si>
   <si>
-    <t>118</t>
-  </si>
-  <si>
     <t>rickys ruff riders</t>
   </si>
   <si>
@@ -229,21 +160,12 @@
     <t>sarcasticahole</t>
   </si>
   <si>
-    <t>65</t>
-  </si>
-  <si>
     <t>shooty pants</t>
   </si>
   <si>
-    <t>44</t>
-  </si>
-  <si>
     <t>teamgb</t>
   </si>
   <si>
-    <t>42</t>
-  </si>
-  <si>
     <t>wrathavenger</t>
   </si>
   <si>
@@ -1468,6 +1390,9 @@
     <t>Boricua</t>
   </si>
   <si>
+    <t>06 Sep 2019 03:05:41 GMT</t>
+  </si>
+  <si>
     <t>361739579977629697</t>
   </si>
   <si>
@@ -1477,6 +1402,9 @@
     <t>Copperpopo</t>
   </si>
   <si>
+    <t>11 Sep 2019 14:51:28 GMT</t>
+  </si>
+  <si>
     <t>621375239909015552</t>
   </si>
   <si>
@@ -1498,6 +1426,9 @@
     <t>N0MADIC</t>
   </si>
   <si>
+    <t>15 Sep 2019 17:26:19 GMT</t>
+  </si>
+  <si>
     <t>472627903104811019</t>
   </si>
   <si>
@@ -1531,6 +1462,9 @@
     <t>Nae’blis</t>
   </si>
   <si>
+    <t>17 Jan 2019 21:12:35 GMT</t>
+  </si>
+  <si>
     <t>453762219042406401</t>
   </si>
   <si>
@@ -1540,6 +1474,9 @@
     <t>PapaMarsh</t>
   </si>
   <si>
+    <t>22 Mar 2019 14:26:29 GMT</t>
+  </si>
+  <si>
     <t>214042704357621760</t>
   </si>
   <si>
@@ -1592,6 +1529,9 @@
   </si>
   <si>
     <t>mousecop</t>
+  </si>
+  <si>
+    <t>11 Sep 2019 14:48:17 GMT</t>
   </si>
 </sst>
 </file>
@@ -1961,7 +1901,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2" customHeight="1"/>
@@ -1974,7 +1914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1984,55 +1924,50 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2042,287 +1977,137 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>31</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>32</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>34</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>35</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>36</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2342,37 +2127,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2409,1837 +2194,1837 @@
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
     </row>
     <row r="55" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
     </row>
     <row r="57" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
     </row>
     <row r="60" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
     </row>
     <row r="61" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
     </row>
     <row r="65" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
     </row>
     <row r="66" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
     </row>
     <row r="67" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
     </row>
     <row r="68" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
     </row>
     <row r="69" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
     </row>
     <row r="70" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
     </row>
     <row r="71" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
     </row>
     <row r="72" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
     </row>
     <row r="73" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
     </row>
     <row r="74" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
     </row>
     <row r="75" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
     </row>
     <row r="76" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>311</v>
+        <v>285</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>324</v>
+        <v>298</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>330</v>
+        <v>304</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>331</v>
+        <v>305</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>332</v>
+        <v>306</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>333</v>
+        <v>307</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>335</v>
+        <v>309</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>336</v>
+        <v>310</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>337</v>
+        <v>311</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>338</v>
+        <v>312</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>339</v>
+        <v>313</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>342</v>
+        <v>316</v>
       </c>
     </row>
     <row r="266" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
     </row>
     <row r="268" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
     </row>
     <row r="269" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
     </row>
     <row r="271" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>346</v>
+        <v>320</v>
       </c>
     </row>
     <row r="272" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>347</v>
+        <v>321</v>
       </c>
     </row>
     <row r="274" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
     </row>
     <row r="275" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>349</v>
+        <v>323</v>
       </c>
     </row>
     <row r="277" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
     </row>
     <row r="278" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
     </row>
     <row r="280" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>352</v>
+        <v>326</v>
       </c>
     </row>
     <row r="281" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
     </row>
     <row r="283" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
     </row>
     <row r="284" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
     </row>
     <row r="286" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>356</v>
+        <v>330</v>
       </c>
     </row>
     <row r="287" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>357</v>
+        <v>331</v>
       </c>
     </row>
     <row r="289" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>358</v>
+        <v>332</v>
       </c>
     </row>
     <row r="290" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>359</v>
+        <v>333</v>
       </c>
     </row>
     <row r="292" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>360</v>
+        <v>334</v>
       </c>
     </row>
     <row r="293" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>361</v>
+        <v>335</v>
       </c>
     </row>
     <row r="295" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>362</v>
+        <v>336</v>
       </c>
     </row>
     <row r="296" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>363</v>
+        <v>337</v>
       </c>
     </row>
     <row r="298" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>364</v>
+        <v>338</v>
       </c>
     </row>
     <row r="299" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
     </row>
     <row r="301" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>366</v>
+        <v>340</v>
       </c>
     </row>
     <row r="302" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>367</v>
+        <v>341</v>
       </c>
     </row>
     <row r="304" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>368</v>
+        <v>342</v>
       </c>
     </row>
     <row r="305" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>369</v>
+        <v>343</v>
       </c>
     </row>
     <row r="307" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>370</v>
+        <v>344</v>
       </c>
     </row>
     <row r="308" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>371</v>
+        <v>345</v>
       </c>
     </row>
     <row r="310" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>372</v>
+        <v>346</v>
       </c>
     </row>
     <row r="311" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>373</v>
+        <v>347</v>
       </c>
     </row>
     <row r="313" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>374</v>
+        <v>348</v>
       </c>
     </row>
     <row r="314" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>375</v>
+        <v>349</v>
       </c>
     </row>
     <row r="316" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>376</v>
+        <v>350</v>
       </c>
     </row>
     <row r="317" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>377</v>
+        <v>351</v>
       </c>
     </row>
     <row r="319" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>378</v>
+        <v>352</v>
       </c>
     </row>
     <row r="320" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>379</v>
+        <v>353</v>
       </c>
     </row>
     <row r="322" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>380</v>
+        <v>354</v>
       </c>
     </row>
     <row r="323" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>381</v>
+        <v>355</v>
       </c>
     </row>
     <row r="325" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>382</v>
+        <v>356</v>
       </c>
     </row>
     <row r="326" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>383</v>
+        <v>357</v>
       </c>
     </row>
     <row r="328" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>384</v>
+        <v>358</v>
       </c>
     </row>
     <row r="329" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>385</v>
+        <v>359</v>
       </c>
     </row>
     <row r="331" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>386</v>
+        <v>360</v>
       </c>
     </row>
     <row r="332" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
     </row>
     <row r="334" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>388</v>
+        <v>362</v>
       </c>
     </row>
     <row r="335" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>389</v>
+        <v>363</v>
       </c>
     </row>
     <row r="337" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>390</v>
+        <v>364</v>
       </c>
     </row>
     <row r="338" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>391</v>
+        <v>365</v>
       </c>
     </row>
     <row r="340" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>392</v>
+        <v>366</v>
       </c>
     </row>
     <row r="341" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>393</v>
+        <v>367</v>
       </c>
     </row>
     <row r="343" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>394</v>
+        <v>368</v>
       </c>
     </row>
     <row r="344" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>395</v>
+        <v>369</v>
       </c>
     </row>
     <row r="346" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>396</v>
+        <v>370</v>
       </c>
     </row>
     <row r="347" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>397</v>
+        <v>371</v>
       </c>
     </row>
     <row r="349" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>398</v>
+        <v>372</v>
       </c>
     </row>
     <row r="350" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>399</v>
+        <v>373</v>
       </c>
     </row>
     <row r="352" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>400</v>
+        <v>374</v>
       </c>
     </row>
     <row r="353" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>401</v>
+        <v>375</v>
       </c>
     </row>
     <row r="355" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>402</v>
+        <v>376</v>
       </c>
     </row>
     <row r="356" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>403</v>
+        <v>377</v>
       </c>
     </row>
     <row r="358" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>404</v>
+        <v>378</v>
       </c>
     </row>
     <row r="359" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>405</v>
+        <v>379</v>
       </c>
     </row>
     <row r="361" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>406</v>
+        <v>380</v>
       </c>
     </row>
     <row r="362" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>407</v>
+        <v>381</v>
       </c>
     </row>
     <row r="364" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>408</v>
+        <v>382</v>
       </c>
     </row>
     <row r="365" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>409</v>
+        <v>383</v>
       </c>
     </row>
     <row r="367" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>410</v>
+        <v>384</v>
       </c>
     </row>
     <row r="368" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>411</v>
+        <v>385</v>
       </c>
     </row>
     <row r="370" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>412</v>
+        <v>386</v>
       </c>
     </row>
     <row r="371" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>413</v>
+        <v>387</v>
       </c>
     </row>
     <row r="373" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>414</v>
+        <v>388</v>
       </c>
     </row>
     <row r="374" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>415</v>
+        <v>389</v>
       </c>
     </row>
     <row r="376" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>416</v>
+        <v>390</v>
       </c>
     </row>
     <row r="377" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>417</v>
+        <v>391</v>
       </c>
     </row>
     <row r="379" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>418</v>
+        <v>392</v>
       </c>
     </row>
     <row r="380" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>419</v>
+        <v>393</v>
       </c>
     </row>
     <row r="382" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>420</v>
+        <v>394</v>
       </c>
     </row>
     <row r="383" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>421</v>
+        <v>395</v>
       </c>
     </row>
     <row r="385" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
-        <v>422</v>
+        <v>396</v>
       </c>
     </row>
     <row r="386" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
-        <v>423</v>
+        <v>397</v>
       </c>
     </row>
     <row r="388" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>424</v>
+        <v>398</v>
       </c>
     </row>
     <row r="389" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>425</v>
+        <v>399</v>
       </c>
     </row>
     <row r="391" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>426</v>
+        <v>400</v>
       </c>
     </row>
     <row r="392" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>427</v>
+        <v>401</v>
       </c>
     </row>
     <row r="394" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>428</v>
+        <v>402</v>
       </c>
     </row>
     <row r="395" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
-        <v>429</v>
+        <v>403</v>
       </c>
     </row>
     <row r="397" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
-        <v>430</v>
+        <v>404</v>
       </c>
     </row>
     <row r="398" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
-        <v>431</v>
+        <v>405</v>
       </c>
     </row>
     <row r="400" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
-        <v>432</v>
+        <v>406</v>
       </c>
     </row>
     <row r="401" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>433</v>
+        <v>407</v>
       </c>
     </row>
     <row r="403" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
-        <v>434</v>
+        <v>408</v>
       </c>
     </row>
     <row r="404" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
-        <v>435</v>
+        <v>409</v>
       </c>
     </row>
     <row r="406" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>436</v>
+        <v>410</v>
       </c>
     </row>
     <row r="407" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>437</v>
+        <v>411</v>
       </c>
     </row>
     <row r="409" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
-        <v>438</v>
+        <v>412</v>
       </c>
     </row>
     <row r="410" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
-        <v>439</v>
+        <v>413</v>
       </c>
     </row>
     <row r="412" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
-        <v>440</v>
+        <v>414</v>
       </c>
     </row>
     <row r="413" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
-        <v>441</v>
+        <v>415</v>
       </c>
     </row>
     <row r="415" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
-        <v>442</v>
+        <v>416</v>
       </c>
     </row>
     <row r="416" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
-        <v>443</v>
+        <v>417</v>
       </c>
     </row>
     <row r="418" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
-        <v>444</v>
+        <v>418</v>
       </c>
     </row>
     <row r="419" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
-        <v>445</v>
+        <v>419</v>
       </c>
     </row>
     <row r="421" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
-        <v>446</v>
+        <v>420</v>
       </c>
     </row>
     <row r="422" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
-        <v>447</v>
+        <v>421</v>
       </c>
     </row>
     <row r="424" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>448</v>
+        <v>422</v>
       </c>
     </row>
     <row r="425" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
-        <v>449</v>
+        <v>423</v>
       </c>
     </row>
     <row r="427" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
-        <v>450</v>
+        <v>424</v>
       </c>
     </row>
     <row r="428" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
-        <v>451</v>
+        <v>425</v>
       </c>
     </row>
     <row r="430" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
-        <v>452</v>
+        <v>426</v>
       </c>
     </row>
     <row r="431" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
-        <v>453</v>
+        <v>427</v>
       </c>
     </row>
     <row r="433" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
-        <v>454</v>
+        <v>428</v>
       </c>
     </row>
     <row r="434" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
-        <v>455</v>
+        <v>429</v>
       </c>
     </row>
     <row r="436" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
-        <v>456</v>
+        <v>430</v>
       </c>
     </row>
     <row r="437" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
-        <v>457</v>
+        <v>431</v>
       </c>
     </row>
     <row r="439" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
-        <v>458</v>
+        <v>432</v>
       </c>
     </row>
     <row r="440" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
-        <v>459</v>
+        <v>433</v>
       </c>
     </row>
     <row r="442" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
-        <v>460</v>
+        <v>434</v>
       </c>
     </row>
     <row r="443" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
-        <v>461</v>
+        <v>435</v>
       </c>
     </row>
     <row r="445" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
-        <v>462</v>
+        <v>436</v>
       </c>
     </row>
     <row r="446" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
-        <v>463</v>
+        <v>437</v>
       </c>
     </row>
     <row r="448" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
-        <v>464</v>
+        <v>438</v>
       </c>
     </row>
     <row r="449" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
-        <v>465</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -4249,7 +4034,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="E8" sqref="E8"/>
@@ -4259,202 +4044,222 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>466</v>
+        <v>440</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>468</v>
+        <v>442</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>469</v>
+        <v>443</v>
+      </c>
+      <c r="C2" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>471</v>
+        <v>446</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>472</v>
+        <v>447</v>
+      </c>
+      <c r="C4" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>473</v>
+        <v>449</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>474</v>
+        <v>450</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>475</v>
+        <v>451</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>479</v>
+        <v>455</v>
+      </c>
+      <c r="C8" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>480</v>
+        <v>457</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>481</v>
+        <v>458</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>482</v>
+        <v>459</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>483</v>
+        <v>460</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>484</v>
+        <v>461</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>485</v>
+        <v>462</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>486</v>
+        <v>463</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>487</v>
+        <v>464</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>488</v>
+        <v>465</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>489</v>
+        <v>466</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>490</v>
+        <v>467</v>
+      </c>
+      <c r="C14" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>491</v>
+        <v>469</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>492</v>
+        <v>470</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>493</v>
+        <v>471</v>
+      </c>
+      <c r="C16" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>494</v>
+        <v>473</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>495</v>
+        <v>474</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>496</v>
+        <v>475</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>497</v>
+        <v>476</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>499</v>
+        <v>478</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>500</v>
+        <v>479</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>501</v>
+        <v>480</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>502</v>
+        <v>481</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>503</v>
+        <v>482</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>504</v>
+        <v>483</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>505</v>
+        <v>484</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>506</v>
+        <v>485</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>507</v>
+        <v>486</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>508</v>
+        <v>487</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>509</v>
+        <v>488</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>510</v>
+        <v>489</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>511</v>
+        <v>490</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>491</v>
       </c>
     </row>
   </sheetData>

--- a/db_BACKUP.xlsx
+++ b/db_BACKUP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet sheetId="1" name="Admin" state="visible" r:id="rId4"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="502">
   <si>
     <t>allies</t>
   </si>
@@ -1384,6 +1384,9 @@
     <t>mjm1976m</t>
   </si>
   <si>
+    <t>15 Sep 2019 17:46:38 GMT</t>
+  </si>
+  <si>
     <t>117048304646225924</t>
   </si>
   <si>
@@ -1408,12 +1411,18 @@
     <t>621375239909015552</t>
   </si>
   <si>
+    <t>11 Sep 2019 16:04:49 GMT</t>
+  </si>
+  <si>
     <t>621364830418239516</t>
   </si>
   <si>
     <t>pilfer009</t>
   </si>
   <si>
+    <t>11 Sep 2019 15:25:04 GMT</t>
+  </si>
+  <si>
     <t>623316383975079967</t>
   </si>
   <si>
@@ -1435,6 +1444,9 @@
     <t>IKANDY</t>
   </si>
   <si>
+    <t>06 Sep 2019 02:34:36 GMT</t>
+  </si>
+  <si>
     <t>623622883201253411</t>
   </si>
   <si>
@@ -1453,6 +1465,9 @@
     <t>Korvvish</t>
   </si>
   <si>
+    <t>17 Jan 2019 21:03:26 GMT</t>
+  </si>
+  <si>
     <t>478053793532084250</t>
   </si>
   <si>
@@ -1507,6 +1522,9 @@
     <t>SarcasticAhole</t>
   </si>
   <si>
+    <t>18 Jan 2019 03:20:26 GMT</t>
+  </si>
+  <si>
     <t>305697563175157760</t>
   </si>
   <si>
@@ -1529,6 +1547,18 @@
   </si>
   <si>
     <t>mousecop</t>
+  </si>
+  <si>
+    <t>16 Sep 2019 01:36:01 GMT</t>
+  </si>
+  <si>
+    <t>262441739523063809</t>
+  </si>
+  <si>
+    <t>431633842634358794</t>
+  </si>
+  <si>
+    <t>621354689501593620</t>
   </si>
   <si>
     <t>11 Sep 2019 14:48:17 GMT</t>
@@ -1914,7 +1944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4042,28 +4072,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>440</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>441</v>
       </c>
+      <c r="C1" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>15</v>
@@ -4071,85 +4104,97 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C4" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>451</v>
+        <v>453</v>
+      </c>
+      <c r="C6" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C8" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>458</v>
+        <v>461</v>
+      </c>
+      <c r="C9" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>464</v>
+        <v>468</v>
+      </c>
+      <c r="C12" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>25</v>
@@ -4157,18 +4202,18 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="C14" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>27</v>
@@ -4176,90 +4221,109 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="C16" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>482</v>
+        <v>487</v>
+      </c>
+      <c r="C21" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+      <c r="C25" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>500</v>
+      </c>
       <c r="C28" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
     </row>
   </sheetData>
